--- a/제출물/3조 요구사항정의서.xlsx
+++ b/제출물/3조 요구사항정의서.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="요구사항 정의서" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="기능설계서" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgre2q8FDf+O/XcxGSkB8tRSifkwg=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -39,61 +35,221 @@
     <t>비고</t>
   </si>
   <si>
+    <t xml:space="preserve">ㄷ                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>1. 정보 입력</t>
+  </si>
+  <si>
+    <t>1-1. 위치 정보 수집</t>
+  </si>
+  <si>
+    <t>사용자 위치 정보 수집  (ip 기반)</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>2. 정보 제공
+(정보 수집)</t>
+  </si>
+  <si>
+    <t>2-1. 최단 거리 충전소 위치</t>
+  </si>
+  <si>
+    <t>사용자 위치 기준 최단 거리 충전소 위치 표시</t>
+  </si>
+  <si>
+    <t>2-2. 특정 거리 내 충전소 위치</t>
+  </si>
+  <si>
+    <t>사용자 위치 기준 1km/3km/5km 이내 충전소 위치 표시</t>
+  </si>
+  <si>
+    <t>2-3. 주변 충전소 수</t>
+  </si>
+  <si>
+    <t>사용자 주변 충전소 수 표시</t>
+  </si>
+  <si>
+    <t>2-4. 주변 전기차 현황</t>
+  </si>
+  <si>
+    <t>사용자 주변 전기차 현황 표시</t>
+  </si>
+  <si>
+    <t>2-5. 충전 종류별 충전소 현황</t>
+  </si>
+  <si>
+    <t>완속/급속/완속+급속 보유한 충전소 표시</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>3. 충전소 탐색 기능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-1. 충전소 </t>
+  </si>
+  <si>
+    <t>공공데이터 포털 내의 전기차 충전소 위·경도 자료 수집</t>
+  </si>
+  <si>
+    <t>3-2. 충전소 위·경도 자료 전처리</t>
+  </si>
+  <si>
+    <t>위·경도 자료 정제</t>
+  </si>
+  <si>
+    <t>3-3. 충전소 거리 계산</t>
+  </si>
+  <si>
+    <t>사용자 위치기준 충전소 거리 차이 계산</t>
+  </si>
+  <si>
+    <t>3-4. 최단 거리 충전소 반환</t>
+  </si>
+  <si>
+    <t>거리 차이가 가장 적은 충전소 반환</t>
+  </si>
+  <si>
+    <t>3-5. 주변 충전소 수 반환</t>
+  </si>
+  <si>
+    <t>일정 범위 내의 충전소 수 반환</t>
+  </si>
+  <si>
+    <t>4. 지역내 전기차 현황 확인 기능</t>
+  </si>
+  <si>
+    <t>4-1. 친환경 자동차 현황 자료 수집</t>
+  </si>
+  <si>
+    <t>서울 열린 데이터 광장 내의 전기차 등록 현황 자료 수집</t>
+  </si>
+  <si>
+    <t>4-2. 전기차 등록 현황 자료  전처리</t>
+  </si>
+  <si>
+    <t>등록 현황 자료  정제</t>
+  </si>
+  <si>
+    <t>4-3. 지역 자료 필터링</t>
+  </si>
+  <si>
+    <t>사용자 위치기준 구에 포함되는 자료 필터링</t>
+  </si>
+  <si>
+    <t>4-4. 해당 지역 전기차 현황 반환</t>
+  </si>
+  <si>
+    <t>해당 구내의 전기차 현황 반환</t>
+  </si>
+  <si>
+    <t>기능 설계서</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
     <t>시스템 인터페이스</t>
   </si>
   <si>
-    <t>1. 정보 제공</t>
-  </si>
-  <si>
-    <t>1-1. 충전소 위치</t>
-  </si>
-  <si>
-    <t>사용자 위치 기준 최단 거리 충전소 위치 반환</t>
-  </si>
-  <si>
-    <t>1-2. 충전소 수</t>
-  </si>
-  <si>
-    <t>해당 지역 충전소 수 반환</t>
-  </si>
-  <si>
-    <t>1-3. 전기차 현황</t>
-  </si>
-  <si>
-    <t>해당 지역 전기차 현황 반환</t>
+    <t>1. 시스템 화면 제작</t>
+  </si>
+  <si>
+    <t>1-1. 시스템 페이지 구성</t>
+  </si>
+  <si>
+    <t>streamlit를 활용한 페이지 제작</t>
+  </si>
+  <si>
+    <t>정한수</t>
+  </si>
+  <si>
+    <t>1-2. 정보 입력창</t>
+  </si>
+  <si>
+    <t>위치 정보 입력을 위한 입력창 제작</t>
+  </si>
+  <si>
+    <t>1-3. 정보 출력창</t>
+  </si>
+  <si>
+    <t>제공할 정보를 출력할 출력창 제작</t>
+  </si>
+  <si>
+    <t>2. 정보 제공</t>
+  </si>
+  <si>
+    <t>2-1. 충전소 위치(1)</t>
+  </si>
+  <si>
+    <t>사용자 위치 기준 최단 거리 충전소 위치 제공</t>
+  </si>
+  <si>
+    <t>조건영</t>
+  </si>
+  <si>
+    <t>2-2. 충전소 위치(2)</t>
+  </si>
+  <si>
+    <t>사용자 위치 기준 3km/5km 이내 충전소 위치 표시</t>
+  </si>
+  <si>
+    <t>2-2. 충전소 수</t>
+  </si>
+  <si>
+    <t>해당 지역 충전소 수 제공</t>
+  </si>
+  <si>
+    <t>2-3. 전기차 현황</t>
+  </si>
+  <si>
+    <t>해당 지역 전기차 현황 제공</t>
   </si>
   <si>
     <t>데이터 수집</t>
   </si>
   <si>
-    <t>2. 사용자 자료 수집</t>
-  </si>
-  <si>
-    <t>2-1. 위치 정보 수집</t>
+    <t>3. 사용자 자료 수집</t>
+  </si>
+  <si>
+    <t>3-1. 위치 정보 수집</t>
   </si>
   <si>
     <t>사용자 위치 정보 활용</t>
   </si>
   <si>
-    <t>3. 공공데이터 포털</t>
-  </si>
-  <si>
-    <t>3-1. 충전소 위·경도 자료 수집</t>
+    <t>김수아</t>
+  </si>
+  <si>
+    <t>4. 공공데이터 포털</t>
+  </si>
+  <si>
+    <t>4-1. 충전소 위·경도 자료 수집</t>
   </si>
   <si>
     <t>전기차 충전소 위·경도 자료 수집</t>
   </si>
   <si>
-    <t>3-2. 전기차 충전소 충전량 자료 수집</t>
+    <t>방영찬</t>
+  </si>
+  <si>
+    <t>4-2. 전기차 충전소 충전량 자료 수집</t>
   </si>
   <si>
     <t>전기차 충전소 주소 정보 추출</t>
   </si>
   <si>
-    <t>4. 서울 열린 데이터 광장</t>
-  </si>
-  <si>
-    <t>4-1. 친환경 자동차 현황 자료 수집</t>
+    <t>5. 서울 열린 데이터 광장</t>
+  </si>
+  <si>
+    <t>5-1. 친환경 자동차 현황 자료 수집</t>
   </si>
   <si>
     <t>친환경 전기차 등록 현황 자료 수집</t>
@@ -102,31 +258,25 @@
     <t>데이터 관리</t>
   </si>
   <si>
-    <t>5. 데이터 전처리</t>
-  </si>
-  <si>
-    <t>5-1. 충전소 위·경도 자료 전처리</t>
-  </si>
-  <si>
-    <t>위·경도 자료 정제</t>
-  </si>
-  <si>
-    <t>5-2. 충전소 주소  자료  전처리</t>
+    <t>6. 데이터 전처리</t>
+  </si>
+  <si>
+    <t>6-1. 충전소 위·경도 자료 전처리</t>
+  </si>
+  <si>
+    <t>6-2. 충전소 주소 자료 전처리</t>
   </si>
   <si>
     <t>주소  자료  정제</t>
   </si>
   <si>
-    <t>5-3. 전기차 등록 현황 자료  전처리</t>
-  </si>
-  <si>
-    <t>등록 현황 자료  정제</t>
-  </si>
-  <si>
-    <t>6. 관계형 DB</t>
-  </si>
-  <si>
-    <t>6-1. 전처리 데이터 적재</t>
+    <t>6-3. 전기차 등록 현황 자료 전처리</t>
+  </si>
+  <si>
+    <t>7. 관계형 DB</t>
+  </si>
+  <si>
+    <t>7-1. 전처리 데이터 적재</t>
   </si>
   <si>
     <t>데이터 적재</t>
@@ -135,71 +285,71 @@
     <t>데이터 분석</t>
   </si>
   <si>
-    <t>7. 데이터 시각화</t>
-  </si>
-  <si>
-    <t>7-1. 연도별 전기차 등록 추이 시각화</t>
-  </si>
-  <si>
-    <t>7-2. 구별 전기차 수 시각화</t>
-  </si>
-  <si>
-    <t>7-3. 구별 전기차 충전소 수 시각화</t>
-  </si>
-  <si>
-    <t>가능하면 지도로 표현</t>
+    <t>8. 데이터 시각화</t>
+  </si>
+  <si>
+    <t>8-1. 연도별 전기차 등록 추이 시각화</t>
+  </si>
+  <si>
+    <t>연도별 등록된 전기차 수 그래프로 표현</t>
+  </si>
+  <si>
+    <t>신나령</t>
+  </si>
+  <si>
+    <t>8-2. 구별 전기차 수 시각화</t>
+  </si>
+  <si>
+    <t>구역별 전기차 수 그래프로 표현</t>
+  </si>
+  <si>
+    <t>8-3. 구별 전기차 충전소 수 시각화</t>
+  </si>
+  <si>
+    <t>구역별 전기차 충전소 지도에 표현</t>
   </si>
   <si>
     <t>안내시스템 구현</t>
   </si>
   <si>
-    <t>8. 충전소 위치</t>
-  </si>
-  <si>
-    <t>8-1. 충전소 거리 계산</t>
-  </si>
-  <si>
-    <t>사용자 위치기준 충전소 거리 차이 계산</t>
-  </si>
-  <si>
-    <t>8-2. 최단 거리 충전소 반환</t>
-  </si>
-  <si>
-    <t>거리 차이가 가장 적은 충전소 반환</t>
-  </si>
-  <si>
-    <t>9. 지역 구분</t>
-  </si>
-  <si>
-    <t>9-1. 지역 자료 필터링</t>
-  </si>
-  <si>
-    <t>사용자 위치기준 구에 포함되는 자료 필터링</t>
-  </si>
-  <si>
-    <t>10. 충전소 수</t>
-  </si>
-  <si>
-    <t>10-1. 해당 지역 충전소 수 반환</t>
+    <t>9. 충전소 위치</t>
+  </si>
+  <si>
+    <t>9-1. 충전소 거리 계산</t>
+  </si>
+  <si>
+    <t>9-2. 최단 거리 충전소 반환</t>
+  </si>
+  <si>
+    <t>9-3. 특정 거리 충전소 반환</t>
+  </si>
+  <si>
+    <t>10. 지역 구분</t>
+  </si>
+  <si>
+    <t>10-1. 지역 자료 필터링</t>
+  </si>
+  <si>
+    <t>11. 충전소 수</t>
+  </si>
+  <si>
+    <t>11-1. 해당 지역 충전소 수 반환</t>
   </si>
   <si>
     <t>해당 구내의 충전소 수 반환</t>
   </si>
   <si>
-    <t>11. 전기차 현황</t>
-  </si>
-  <si>
-    <t>11-1. 해당 지역 전기차 현황 반환</t>
-  </si>
-  <si>
-    <t>해당 구내의 전기차 현황 반환</t>
+    <t>12. 전기차 현황</t>
+  </si>
+  <si>
+    <t>12-1. 해당 지역 전기차 현황 반환</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -230,8 +380,13 @@
       <name val="Malgun Gothic"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="&quot;Malgun Gothic&quot;"/>
     </font>
     <font>
@@ -239,12 +394,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="&quot;Malgun Gothic&quot;"/>
     </font>
+    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -267,6 +422,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -288,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border/>
     <border>
       <left style="thin">
@@ -311,6 +475,17 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <top style="medium">
@@ -319,6 +494,68 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -337,33 +574,9 @@
       </bottom>
     </border>
     <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -377,12 +590,38 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <bottom style="medium">
         <color rgb="FF000000"/>
-      </top>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -391,24 +630,14 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="medium">
         <color rgb="FF000000"/>
-      </left>
+      </top>
     </border>
     <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -431,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -447,203 +676,290 @@
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,6 +970,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -866,7 +1186,7 @@
     <col customWidth="1" min="3" max="3" width="37.43"/>
     <col customWidth="1" min="4" max="4" width="56.43"/>
     <col customWidth="1" min="5" max="5" width="11.0"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col customWidth="1" min="6" max="21" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -878,7 +1198,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -897,79 +1217,90 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E4" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="E5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E6" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="D7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2.0</v>
+      </c>
       <c r="F7" s="21"/>
     </row>
-    <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="19" t="s">
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10"/>
+      <c r="E8" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" ht="20.25" customHeight="1">
+      <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25" t="s">
         <v>22</v>
@@ -977,214 +1308,191 @@
       <c r="D9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18" t="s">
+      <c r="E9" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" ht="20.25" customHeight="1">
+      <c r="A10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="33" t="s">
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="E10" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" ht="20.25" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="D11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="E11" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="E12" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="E13" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" ht="20.25" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14"/>
-      <c r="B14" s="18" t="s">
+      <c r="D14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="E14" s="37">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="C15" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="E15" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" ht="20.25" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="C16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="D16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="46" t="s">
+      <c r="E16" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" ht="20.25" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="C17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="45"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="47" t="s">
+      <c r="D17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" ht="20.25" customHeight="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="D18" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="51"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10"/>
-      <c r="B21" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="51"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="14"/>
-      <c r="B22" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
+      <c r="E18" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" ht="17.25" customHeight="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="48"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="48"/>
+    </row>
+    <row r="21" ht="17.25" customHeight="1">
+      <c r="B21" s="49"/>
+      <c r="C21" s="48"/>
+    </row>
+    <row r="22" ht="17.25" customHeight="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="50"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
       <c r="B23" s="2"/>
-      <c r="C23" s="65"/>
+      <c r="C23" s="51"/>
     </row>
     <row r="24" ht="17.25" customHeight="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="65"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" ht="17.25" customHeight="1">
       <c r="B25" s="2"/>
-      <c r="C25" s="66"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" ht="17.25" customHeight="1">
       <c r="B26" s="2"/>
-      <c r="C26" s="67"/>
+      <c r="C26" s="53"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
       <c r="B27" s="2"/>
-      <c r="C27" s="68"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
       <c r="B28" s="2"/>
-      <c r="C28" s="69"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
       <c r="B29" s="2"/>
-      <c r="C29" s="69"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
       <c r="B30" s="2"/>
-      <c r="C30" s="70"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" ht="17.25" customHeight="1">
       <c r="B31" s="2"/>
@@ -4894,6 +5202,4124 @@
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
     </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B18"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.43"/>
+    <col customWidth="1" min="2" max="2" width="26.71"/>
+    <col customWidth="1" min="3" max="3" width="37.43"/>
+    <col customWidth="1" min="4" max="4" width="56.43"/>
+    <col customWidth="1" min="5" max="25" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" ht="20.25" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" ht="20.25" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" ht="20.25" customHeight="1">
+      <c r="A11" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" ht="20.25" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" ht="20.25" customHeight="1">
+      <c r="A15" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" ht="20.25" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" ht="20.25" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" ht="20.25" customHeight="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="20.25" customHeight="1">
+      <c r="A19" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" ht="20.25" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" ht="20.25" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" ht="20.25" customHeight="1">
+      <c r="A22" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="86"/>
+      <c r="F22" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" ht="20.25" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" ht="20.25" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" ht="20.25" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="93"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" ht="20.25" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="86"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" ht="20.25" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" ht="17.25" customHeight="1">
+      <c r="B28" s="2"/>
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1">
+      <c r="B29" s="49"/>
+      <c r="C29" s="48"/>
+    </row>
+    <row r="30" ht="17.25" customHeight="1">
+      <c r="B30" s="2"/>
+      <c r="C30" s="99"/>
+    </row>
+    <row r="31" ht="17.25" customHeight="1">
+      <c r="B31" s="2"/>
+      <c r="C31" s="50"/>
+    </row>
+    <row r="32" ht="17.25" customHeight="1">
+      <c r="B32" s="2"/>
+      <c r="C32" s="51"/>
+    </row>
+    <row r="33" ht="17.25" customHeight="1">
+      <c r="B33" s="2"/>
+      <c r="C33" s="52"/>
+    </row>
+    <row r="34" ht="17.25" customHeight="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="52"/>
+    </row>
+    <row r="35" ht="17.25" customHeight="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="53"/>
+    </row>
+    <row r="36" ht="17.25" customHeight="1">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" ht="17.25" customHeight="1">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" ht="17.25" customHeight="1">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" ht="17.25" customHeight="1">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" ht="17.25" customHeight="1">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" ht="17.25" customHeight="1">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" ht="17.25" customHeight="1">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" ht="17.25" customHeight="1">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" ht="17.25" customHeight="1">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" ht="17.25" customHeight="1">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" ht="17.25" customHeight="1">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" ht="17.25" customHeight="1">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" ht="17.25" customHeight="1">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" ht="17.25" customHeight="1">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" ht="17.25" customHeight="1">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" ht="17.25" customHeight="1">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" ht="17.25" customHeight="1">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" ht="17.25" customHeight="1">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" ht="17.25" customHeight="1">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" ht="17.25" customHeight="1">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" ht="17.25" customHeight="1">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" ht="17.25" customHeight="1">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" ht="17.25" customHeight="1">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" ht="17.25" customHeight="1">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" ht="17.25" customHeight="1">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" ht="17.25" customHeight="1">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" ht="17.25" customHeight="1">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" ht="17.25" customHeight="1">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" ht="17.25" customHeight="1">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" ht="17.25" customHeight="1">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" ht="17.25" customHeight="1">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" ht="17.25" customHeight="1">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" ht="17.25" customHeight="1">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" ht="17.25" customHeight="1">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" ht="17.25" customHeight="1">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" ht="17.25" customHeight="1">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" ht="17.25" customHeight="1">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" ht="17.25" customHeight="1">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" ht="17.25" customHeight="1">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" ht="17.25" customHeight="1">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" ht="17.25" customHeight="1">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" ht="17.25" customHeight="1">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" ht="17.25" customHeight="1">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" ht="17.25" customHeight="1">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" ht="17.25" customHeight="1">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" ht="17.25" customHeight="1">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" ht="17.25" customHeight="1">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" ht="17.25" customHeight="1">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" ht="17.25" customHeight="1">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" ht="17.25" customHeight="1">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" ht="17.25" customHeight="1">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" ht="17.25" customHeight="1">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" ht="17.25" customHeight="1">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" ht="17.25" customHeight="1">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" ht="17.25" customHeight="1">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" ht="17.25" customHeight="1">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" ht="17.25" customHeight="1">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" ht="17.25" customHeight="1">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" ht="17.25" customHeight="1">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" ht="17.25" customHeight="1">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" ht="17.25" customHeight="1">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" ht="17.25" customHeight="1">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" ht="17.25" customHeight="1">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" ht="17.25" customHeight="1">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" ht="17.25" customHeight="1">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" ht="17.25" customHeight="1">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" ht="17.25" customHeight="1">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" ht="17.25" customHeight="1">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" ht="17.25" customHeight="1">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" ht="17.25" customHeight="1">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" ht="17.25" customHeight="1">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" ht="17.25" customHeight="1">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" ht="17.25" customHeight="1">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" ht="17.25" customHeight="1">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" ht="17.25" customHeight="1">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" ht="17.25" customHeight="1">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" ht="17.25" customHeight="1">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" ht="17.25" customHeight="1">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" ht="17.25" customHeight="1">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" ht="17.25" customHeight="1">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" ht="17.25" customHeight="1">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" ht="17.25" customHeight="1">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" ht="17.25" customHeight="1">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" ht="17.25" customHeight="1">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" ht="17.25" customHeight="1">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" ht="17.25" customHeight="1">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" ht="17.25" customHeight="1">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" ht="17.25" customHeight="1">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" ht="17.25" customHeight="1">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" ht="17.25" customHeight="1">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" ht="17.25" customHeight="1">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" ht="17.25" customHeight="1">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" ht="17.25" customHeight="1">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" ht="17.25" customHeight="1">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" ht="17.25" customHeight="1">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" ht="17.25" customHeight="1">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" ht="17.25" customHeight="1">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" ht="17.25" customHeight="1">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" ht="17.25" customHeight="1">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" ht="17.25" customHeight="1">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" ht="17.25" customHeight="1">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" ht="17.25" customHeight="1">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" ht="17.25" customHeight="1">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" ht="17.25" customHeight="1">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" ht="17.25" customHeight="1">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" ht="17.25" customHeight="1">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" ht="17.25" customHeight="1">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" ht="17.25" customHeight="1">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" ht="17.25" customHeight="1">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" ht="17.25" customHeight="1">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" ht="17.25" customHeight="1">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" ht="17.25" customHeight="1">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" ht="17.25" customHeight="1">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" ht="17.25" customHeight="1">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" ht="17.25" customHeight="1">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" ht="17.25" customHeight="1">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" ht="17.25" customHeight="1">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" ht="17.25" customHeight="1">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158" ht="17.25" customHeight="1">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" ht="17.25" customHeight="1">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" ht="17.25" customHeight="1">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" ht="17.25" customHeight="1">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" ht="17.25" customHeight="1">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" ht="17.25" customHeight="1">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" ht="17.25" customHeight="1">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" ht="17.25" customHeight="1">
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" ht="17.25" customHeight="1">
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" ht="17.25" customHeight="1">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" ht="17.25" customHeight="1">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" ht="17.25" customHeight="1">
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" ht="17.25" customHeight="1">
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" ht="17.25" customHeight="1">
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" ht="17.25" customHeight="1">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" ht="17.25" customHeight="1">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" ht="17.25" customHeight="1">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" ht="17.25" customHeight="1">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" ht="17.25" customHeight="1">
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" ht="17.25" customHeight="1">
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" ht="17.25" customHeight="1">
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" ht="17.25" customHeight="1">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" ht="17.25" customHeight="1">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" ht="17.25" customHeight="1">
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" ht="17.25" customHeight="1">
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" ht="17.25" customHeight="1">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" ht="17.25" customHeight="1">
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" ht="17.25" customHeight="1">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" ht="17.25" customHeight="1">
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" ht="17.25" customHeight="1">
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" ht="17.25" customHeight="1">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" ht="17.25" customHeight="1">
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190" ht="17.25" customHeight="1">
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" ht="17.25" customHeight="1">
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" ht="17.25" customHeight="1">
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" ht="17.25" customHeight="1">
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" ht="17.25" customHeight="1">
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" ht="17.25" customHeight="1">
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" ht="17.25" customHeight="1">
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" ht="17.25" customHeight="1">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" ht="17.25" customHeight="1">
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" ht="17.25" customHeight="1">
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" ht="17.25" customHeight="1">
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" ht="17.25" customHeight="1">
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" ht="17.25" customHeight="1">
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" ht="17.25" customHeight="1">
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" ht="17.25" customHeight="1">
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" ht="17.25" customHeight="1">
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" ht="17.25" customHeight="1">
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" ht="17.25" customHeight="1">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" ht="17.25" customHeight="1">
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" ht="17.25" customHeight="1">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" ht="17.25" customHeight="1">
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211" ht="17.25" customHeight="1">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" ht="17.25" customHeight="1">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213" ht="17.25" customHeight="1">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" ht="17.25" customHeight="1">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" ht="17.25" customHeight="1">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" ht="17.25" customHeight="1">
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217" ht="17.25" customHeight="1">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218" ht="17.25" customHeight="1">
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219" ht="17.25" customHeight="1">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" ht="17.25" customHeight="1">
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+    </row>
+    <row r="221" ht="17.25" customHeight="1">
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222" ht="17.25" customHeight="1">
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+    </row>
+    <row r="223" ht="17.25" customHeight="1">
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224" ht="17.25" customHeight="1">
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+    </row>
+    <row r="225" ht="17.25" customHeight="1">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" ht="17.25" customHeight="1">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+    </row>
+    <row r="227" ht="17.25" customHeight="1">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228" ht="17.25" customHeight="1">
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229" ht="17.25" customHeight="1">
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230" ht="17.25" customHeight="1">
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+    </row>
+    <row r="231" ht="17.25" customHeight="1">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" ht="17.25" customHeight="1">
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233" ht="17.25" customHeight="1">
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" ht="17.25" customHeight="1">
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" ht="17.25" customHeight="1">
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" ht="17.25" customHeight="1">
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+    </row>
+    <row r="237" ht="17.25" customHeight="1">
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" ht="17.25" customHeight="1">
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" ht="17.25" customHeight="1">
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" ht="17.25" customHeight="1">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" ht="17.25" customHeight="1">
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" ht="17.25" customHeight="1">
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+    </row>
+    <row r="243" ht="17.25" customHeight="1">
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244" ht="17.25" customHeight="1">
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+    </row>
+    <row r="245" ht="17.25" customHeight="1">
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" ht="17.25" customHeight="1">
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247" ht="17.25" customHeight="1">
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" ht="17.25" customHeight="1">
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249" ht="17.25" customHeight="1">
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" ht="17.25" customHeight="1">
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+    </row>
+    <row r="251" ht="17.25" customHeight="1">
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+    </row>
+    <row r="252" ht="17.25" customHeight="1">
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+    </row>
+    <row r="253" ht="17.25" customHeight="1">
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" ht="17.25" customHeight="1">
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255" ht="17.25" customHeight="1">
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256" ht="17.25" customHeight="1">
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+    </row>
+    <row r="257" ht="17.25" customHeight="1">
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+    </row>
+    <row r="258" ht="17.25" customHeight="1">
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259" ht="17.25" customHeight="1">
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260" ht="17.25" customHeight="1">
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261" ht="17.25" customHeight="1">
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" ht="17.25" customHeight="1">
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263" ht="17.25" customHeight="1">
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+    </row>
+    <row r="264" ht="17.25" customHeight="1">
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+    </row>
+    <row r="265" ht="17.25" customHeight="1">
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+    </row>
+    <row r="266" ht="17.25" customHeight="1">
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+    </row>
+    <row r="267" ht="17.25" customHeight="1">
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+    </row>
+    <row r="268" ht="17.25" customHeight="1">
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269" ht="17.25" customHeight="1">
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+    </row>
+    <row r="270" ht="17.25" customHeight="1">
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+    </row>
+    <row r="271" ht="17.25" customHeight="1">
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+    </row>
+    <row r="272" ht="17.25" customHeight="1">
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+    </row>
+    <row r="273" ht="17.25" customHeight="1">
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+    </row>
+    <row r="274" ht="17.25" customHeight="1">
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+    </row>
+    <row r="275" ht="17.25" customHeight="1">
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+    </row>
+    <row r="276" ht="17.25" customHeight="1">
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+    </row>
+    <row r="277" ht="17.25" customHeight="1">
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+    </row>
+    <row r="278" ht="17.25" customHeight="1">
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+    </row>
+    <row r="279" ht="17.25" customHeight="1">
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+    </row>
+    <row r="280" ht="17.25" customHeight="1">
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+    </row>
+    <row r="281" ht="17.25" customHeight="1">
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+    </row>
+    <row r="282" ht="17.25" customHeight="1">
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+    </row>
+    <row r="283" ht="17.25" customHeight="1">
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+    </row>
+    <row r="284" ht="17.25" customHeight="1">
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+    </row>
+    <row r="285" ht="17.25" customHeight="1">
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+    </row>
+    <row r="286" ht="17.25" customHeight="1">
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+    </row>
+    <row r="287" ht="17.25" customHeight="1">
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+    </row>
+    <row r="288" ht="17.25" customHeight="1">
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+    </row>
+    <row r="289" ht="17.25" customHeight="1">
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+    </row>
+    <row r="290" ht="17.25" customHeight="1">
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+    </row>
+    <row r="291" ht="17.25" customHeight="1">
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+    </row>
+    <row r="292" ht="17.25" customHeight="1">
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+    </row>
+    <row r="293" ht="17.25" customHeight="1">
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+    </row>
+    <row r="294" ht="17.25" customHeight="1">
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+    </row>
+    <row r="295" ht="17.25" customHeight="1">
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+    </row>
+    <row r="296" ht="17.25" customHeight="1">
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+    </row>
+    <row r="297" ht="17.25" customHeight="1">
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+    </row>
+    <row r="298" ht="17.25" customHeight="1">
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+    </row>
+    <row r="299" ht="17.25" customHeight="1">
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+    </row>
+    <row r="300" ht="17.25" customHeight="1">
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+    </row>
+    <row r="301" ht="17.25" customHeight="1">
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+    </row>
+    <row r="302" ht="17.25" customHeight="1">
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+    </row>
+    <row r="303" ht="17.25" customHeight="1">
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+    </row>
+    <row r="304" ht="17.25" customHeight="1">
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+    </row>
+    <row r="305" ht="17.25" customHeight="1">
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+    </row>
+    <row r="306" ht="17.25" customHeight="1">
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+    </row>
+    <row r="307" ht="17.25" customHeight="1">
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+    </row>
+    <row r="308" ht="17.25" customHeight="1">
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+    </row>
+    <row r="309" ht="17.25" customHeight="1">
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+    </row>
+    <row r="310" ht="17.25" customHeight="1">
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+    </row>
+    <row r="311" ht="17.25" customHeight="1">
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+    </row>
+    <row r="312" ht="17.25" customHeight="1">
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+    </row>
+    <row r="313" ht="17.25" customHeight="1">
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+    </row>
+    <row r="314" ht="17.25" customHeight="1">
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
+    </row>
+    <row r="315" ht="17.25" customHeight="1">
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
+    </row>
+    <row r="316" ht="17.25" customHeight="1">
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+    </row>
+    <row r="317" ht="17.25" customHeight="1">
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+    </row>
+    <row r="318" ht="17.25" customHeight="1">
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+    </row>
+    <row r="319" ht="17.25" customHeight="1">
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+    </row>
+    <row r="320" ht="17.25" customHeight="1">
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
+    </row>
+    <row r="321" ht="17.25" customHeight="1">
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+    </row>
+    <row r="322" ht="17.25" customHeight="1">
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
+    </row>
+    <row r="323" ht="17.25" customHeight="1">
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
+    </row>
+    <row r="324" ht="17.25" customHeight="1">
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+    </row>
+    <row r="325" ht="17.25" customHeight="1">
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
+    </row>
+    <row r="326" ht="17.25" customHeight="1">
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+    </row>
+    <row r="327" ht="17.25" customHeight="1">
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+    </row>
+    <row r="328" ht="17.25" customHeight="1">
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+    </row>
+    <row r="329" ht="17.25" customHeight="1">
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+    </row>
+    <row r="330" ht="17.25" customHeight="1">
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+    </row>
+    <row r="331" ht="17.25" customHeight="1">
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+    </row>
+    <row r="332" ht="17.25" customHeight="1">
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+    </row>
+    <row r="333" ht="17.25" customHeight="1">
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+    </row>
+    <row r="334" ht="17.25" customHeight="1">
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+    </row>
+    <row r="335" ht="17.25" customHeight="1">
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+    </row>
+    <row r="336" ht="17.25" customHeight="1">
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+    </row>
+    <row r="337" ht="17.25" customHeight="1">
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+    </row>
+    <row r="338" ht="17.25" customHeight="1">
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+    </row>
+    <row r="339" ht="17.25" customHeight="1">
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+    </row>
+    <row r="340" ht="17.25" customHeight="1">
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+    </row>
+    <row r="341" ht="17.25" customHeight="1">
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+    </row>
+    <row r="342" ht="17.25" customHeight="1">
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
+    </row>
+    <row r="343" ht="17.25" customHeight="1">
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+    </row>
+    <row r="344" ht="17.25" customHeight="1">
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+    </row>
+    <row r="345" ht="17.25" customHeight="1">
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+    </row>
+    <row r="346" ht="17.25" customHeight="1">
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+    </row>
+    <row r="347" ht="17.25" customHeight="1">
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+    </row>
+    <row r="348" ht="17.25" customHeight="1">
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+    </row>
+    <row r="349" ht="17.25" customHeight="1">
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
+    </row>
+    <row r="350" ht="17.25" customHeight="1">
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+    </row>
+    <row r="351" ht="17.25" customHeight="1">
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+    </row>
+    <row r="352" ht="17.25" customHeight="1">
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+    </row>
+    <row r="353" ht="17.25" customHeight="1">
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+    </row>
+    <row r="354" ht="17.25" customHeight="1">
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+    </row>
+    <row r="355" ht="17.25" customHeight="1">
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+    </row>
+    <row r="356" ht="17.25" customHeight="1">
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+    </row>
+    <row r="357" ht="17.25" customHeight="1">
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+    </row>
+    <row r="358" ht="17.25" customHeight="1">
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+    </row>
+    <row r="359" ht="17.25" customHeight="1">
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+    </row>
+    <row r="360" ht="17.25" customHeight="1">
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+    </row>
+    <row r="361" ht="17.25" customHeight="1">
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+    </row>
+    <row r="362" ht="17.25" customHeight="1">
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+    </row>
+    <row r="363" ht="17.25" customHeight="1">
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+    </row>
+    <row r="364" ht="17.25" customHeight="1">
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+    </row>
+    <row r="365" ht="17.25" customHeight="1">
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+    </row>
+    <row r="366" ht="17.25" customHeight="1">
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+    </row>
+    <row r="367" ht="17.25" customHeight="1">
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+    </row>
+    <row r="368" ht="17.25" customHeight="1">
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+    </row>
+    <row r="369" ht="17.25" customHeight="1">
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+    </row>
+    <row r="370" ht="17.25" customHeight="1">
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+    </row>
+    <row r="371" ht="17.25" customHeight="1">
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+    </row>
+    <row r="372" ht="17.25" customHeight="1">
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+    </row>
+    <row r="373" ht="17.25" customHeight="1">
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+    </row>
+    <row r="374" ht="17.25" customHeight="1">
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+    </row>
+    <row r="375" ht="17.25" customHeight="1">
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+    </row>
+    <row r="376" ht="17.25" customHeight="1">
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+    </row>
+    <row r="377" ht="17.25" customHeight="1">
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+    </row>
+    <row r="378" ht="17.25" customHeight="1">
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+    </row>
+    <row r="379" ht="17.25" customHeight="1">
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+    </row>
+    <row r="380" ht="17.25" customHeight="1">
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+    </row>
+    <row r="381" ht="17.25" customHeight="1">
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+    </row>
+    <row r="382" ht="17.25" customHeight="1">
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+    </row>
+    <row r="383" ht="17.25" customHeight="1">
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+    </row>
+    <row r="384" ht="17.25" customHeight="1">
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+    </row>
+    <row r="385" ht="17.25" customHeight="1">
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+    </row>
+    <row r="386" ht="17.25" customHeight="1">
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+    </row>
+    <row r="387" ht="17.25" customHeight="1">
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+    </row>
+    <row r="388" ht="17.25" customHeight="1">
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+    </row>
+    <row r="389" ht="17.25" customHeight="1">
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+    </row>
+    <row r="390" ht="17.25" customHeight="1">
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+    </row>
+    <row r="391" ht="17.25" customHeight="1">
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+    </row>
+    <row r="392" ht="17.25" customHeight="1">
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+    </row>
+    <row r="393" ht="17.25" customHeight="1">
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+    </row>
+    <row r="394" ht="17.25" customHeight="1">
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+    </row>
+    <row r="395" ht="17.25" customHeight="1">
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+    </row>
+    <row r="396" ht="17.25" customHeight="1">
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+    </row>
+    <row r="397" ht="17.25" customHeight="1">
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+    </row>
+    <row r="398" ht="17.25" customHeight="1">
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+    </row>
+    <row r="399" ht="17.25" customHeight="1">
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+    </row>
+    <row r="400" ht="17.25" customHeight="1">
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+    </row>
+    <row r="401" ht="17.25" customHeight="1">
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
+    </row>
+    <row r="402" ht="17.25" customHeight="1">
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+    </row>
+    <row r="403" ht="17.25" customHeight="1">
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+    </row>
+    <row r="404" ht="17.25" customHeight="1">
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+    </row>
+    <row r="405" ht="17.25" customHeight="1">
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+    </row>
+    <row r="406" ht="17.25" customHeight="1">
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+    </row>
+    <row r="407" ht="17.25" customHeight="1">
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+    </row>
+    <row r="408" ht="17.25" customHeight="1">
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+    </row>
+    <row r="409" ht="17.25" customHeight="1">
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+    </row>
+    <row r="410" ht="17.25" customHeight="1">
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+    </row>
+    <row r="411" ht="17.25" customHeight="1">
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+    </row>
+    <row r="412" ht="17.25" customHeight="1">
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+    </row>
+    <row r="413" ht="17.25" customHeight="1">
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+    </row>
+    <row r="414" ht="17.25" customHeight="1">
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+    </row>
+    <row r="415" ht="17.25" customHeight="1">
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+    </row>
+    <row r="416" ht="17.25" customHeight="1">
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+    </row>
+    <row r="417" ht="17.25" customHeight="1">
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+    </row>
+    <row r="418" ht="17.25" customHeight="1">
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+    </row>
+    <row r="419" ht="17.25" customHeight="1">
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+    </row>
+    <row r="420" ht="17.25" customHeight="1">
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+    </row>
+    <row r="421" ht="17.25" customHeight="1">
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+    </row>
+    <row r="422" ht="17.25" customHeight="1">
+      <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
+    </row>
+    <row r="423" ht="17.25" customHeight="1">
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+    </row>
+    <row r="424" ht="17.25" customHeight="1">
+      <c r="B424" s="2"/>
+      <c r="C424" s="2"/>
+    </row>
+    <row r="425" ht="17.25" customHeight="1">
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+    </row>
+    <row r="426" ht="17.25" customHeight="1">
+      <c r="B426" s="2"/>
+      <c r="C426" s="2"/>
+    </row>
+    <row r="427" ht="17.25" customHeight="1">
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+    </row>
+    <row r="428" ht="17.25" customHeight="1">
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+    </row>
+    <row r="429" ht="17.25" customHeight="1">
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+    </row>
+    <row r="430" ht="17.25" customHeight="1">
+      <c r="B430" s="2"/>
+      <c r="C430" s="2"/>
+    </row>
+    <row r="431" ht="17.25" customHeight="1">
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+    </row>
+    <row r="432" ht="17.25" customHeight="1">
+      <c r="B432" s="2"/>
+      <c r="C432" s="2"/>
+    </row>
+    <row r="433" ht="17.25" customHeight="1">
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
+    </row>
+    <row r="434" ht="17.25" customHeight="1">
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+    </row>
+    <row r="435" ht="17.25" customHeight="1">
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+    </row>
+    <row r="436" ht="17.25" customHeight="1">
+      <c r="B436" s="2"/>
+      <c r="C436" s="2"/>
+    </row>
+    <row r="437" ht="17.25" customHeight="1">
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
+    </row>
+    <row r="438" ht="17.25" customHeight="1">
+      <c r="B438" s="2"/>
+      <c r="C438" s="2"/>
+    </row>
+    <row r="439" ht="17.25" customHeight="1">
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
+    </row>
+    <row r="440" ht="17.25" customHeight="1">
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+    </row>
+    <row r="441" ht="17.25" customHeight="1">
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+    </row>
+    <row r="442" ht="17.25" customHeight="1">
+      <c r="B442" s="2"/>
+      <c r="C442" s="2"/>
+    </row>
+    <row r="443" ht="17.25" customHeight="1">
+      <c r="B443" s="2"/>
+      <c r="C443" s="2"/>
+    </row>
+    <row r="444" ht="17.25" customHeight="1">
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
+    </row>
+    <row r="445" ht="17.25" customHeight="1">
+      <c r="B445" s="2"/>
+      <c r="C445" s="2"/>
+    </row>
+    <row r="446" ht="17.25" customHeight="1">
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+    </row>
+    <row r="447" ht="17.25" customHeight="1">
+      <c r="B447" s="2"/>
+      <c r="C447" s="2"/>
+    </row>
+    <row r="448" ht="17.25" customHeight="1">
+      <c r="B448" s="2"/>
+      <c r="C448" s="2"/>
+    </row>
+    <row r="449" ht="17.25" customHeight="1">
+      <c r="B449" s="2"/>
+      <c r="C449" s="2"/>
+    </row>
+    <row r="450" ht="17.25" customHeight="1">
+      <c r="B450" s="2"/>
+      <c r="C450" s="2"/>
+    </row>
+    <row r="451" ht="17.25" customHeight="1">
+      <c r="B451" s="2"/>
+      <c r="C451" s="2"/>
+    </row>
+    <row r="452" ht="17.25" customHeight="1">
+      <c r="B452" s="2"/>
+      <c r="C452" s="2"/>
+    </row>
+    <row r="453" ht="17.25" customHeight="1">
+      <c r="B453" s="2"/>
+      <c r="C453" s="2"/>
+    </row>
+    <row r="454" ht="17.25" customHeight="1">
+      <c r="B454" s="2"/>
+      <c r="C454" s="2"/>
+    </row>
+    <row r="455" ht="17.25" customHeight="1">
+      <c r="B455" s="2"/>
+      <c r="C455" s="2"/>
+    </row>
+    <row r="456" ht="17.25" customHeight="1">
+      <c r="B456" s="2"/>
+      <c r="C456" s="2"/>
+    </row>
+    <row r="457" ht="17.25" customHeight="1">
+      <c r="B457" s="2"/>
+      <c r="C457" s="2"/>
+    </row>
+    <row r="458" ht="17.25" customHeight="1">
+      <c r="B458" s="2"/>
+      <c r="C458" s="2"/>
+    </row>
+    <row r="459" ht="17.25" customHeight="1">
+      <c r="B459" s="2"/>
+      <c r="C459" s="2"/>
+    </row>
+    <row r="460" ht="17.25" customHeight="1">
+      <c r="B460" s="2"/>
+      <c r="C460" s="2"/>
+    </row>
+    <row r="461" ht="17.25" customHeight="1">
+      <c r="B461" s="2"/>
+      <c r="C461" s="2"/>
+    </row>
+    <row r="462" ht="17.25" customHeight="1">
+      <c r="B462" s="2"/>
+      <c r="C462" s="2"/>
+    </row>
+    <row r="463" ht="17.25" customHeight="1">
+      <c r="B463" s="2"/>
+      <c r="C463" s="2"/>
+    </row>
+    <row r="464" ht="17.25" customHeight="1">
+      <c r="B464" s="2"/>
+      <c r="C464" s="2"/>
+    </row>
+    <row r="465" ht="17.25" customHeight="1">
+      <c r="B465" s="2"/>
+      <c r="C465" s="2"/>
+    </row>
+    <row r="466" ht="17.25" customHeight="1">
+      <c r="B466" s="2"/>
+      <c r="C466" s="2"/>
+    </row>
+    <row r="467" ht="17.25" customHeight="1">
+      <c r="B467" s="2"/>
+      <c r="C467" s="2"/>
+    </row>
+    <row r="468" ht="17.25" customHeight="1">
+      <c r="B468" s="2"/>
+      <c r="C468" s="2"/>
+    </row>
+    <row r="469" ht="17.25" customHeight="1">
+      <c r="B469" s="2"/>
+      <c r="C469" s="2"/>
+    </row>
+    <row r="470" ht="17.25" customHeight="1">
+      <c r="B470" s="2"/>
+      <c r="C470" s="2"/>
+    </row>
+    <row r="471" ht="17.25" customHeight="1">
+      <c r="B471" s="2"/>
+      <c r="C471" s="2"/>
+    </row>
+    <row r="472" ht="17.25" customHeight="1">
+      <c r="B472" s="2"/>
+      <c r="C472" s="2"/>
+    </row>
+    <row r="473" ht="17.25" customHeight="1">
+      <c r="B473" s="2"/>
+      <c r="C473" s="2"/>
+    </row>
+    <row r="474" ht="17.25" customHeight="1">
+      <c r="B474" s="2"/>
+      <c r="C474" s="2"/>
+    </row>
+    <row r="475" ht="17.25" customHeight="1">
+      <c r="B475" s="2"/>
+      <c r="C475" s="2"/>
+    </row>
+    <row r="476" ht="17.25" customHeight="1">
+      <c r="B476" s="2"/>
+      <c r="C476" s="2"/>
+    </row>
+    <row r="477" ht="17.25" customHeight="1">
+      <c r="B477" s="2"/>
+      <c r="C477" s="2"/>
+    </row>
+    <row r="478" ht="17.25" customHeight="1">
+      <c r="B478" s="2"/>
+      <c r="C478" s="2"/>
+    </row>
+    <row r="479" ht="17.25" customHeight="1">
+      <c r="B479" s="2"/>
+      <c r="C479" s="2"/>
+    </row>
+    <row r="480" ht="17.25" customHeight="1">
+      <c r="B480" s="2"/>
+      <c r="C480" s="2"/>
+    </row>
+    <row r="481" ht="17.25" customHeight="1">
+      <c r="B481" s="2"/>
+      <c r="C481" s="2"/>
+    </row>
+    <row r="482" ht="17.25" customHeight="1">
+      <c r="B482" s="2"/>
+      <c r="C482" s="2"/>
+    </row>
+    <row r="483" ht="17.25" customHeight="1">
+      <c r="B483" s="2"/>
+      <c r="C483" s="2"/>
+    </row>
+    <row r="484" ht="17.25" customHeight="1">
+      <c r="B484" s="2"/>
+      <c r="C484" s="2"/>
+    </row>
+    <row r="485" ht="17.25" customHeight="1">
+      <c r="B485" s="2"/>
+      <c r="C485" s="2"/>
+    </row>
+    <row r="486" ht="17.25" customHeight="1">
+      <c r="B486" s="2"/>
+      <c r="C486" s="2"/>
+    </row>
+    <row r="487" ht="17.25" customHeight="1">
+      <c r="B487" s="2"/>
+      <c r="C487" s="2"/>
+    </row>
+    <row r="488" ht="17.25" customHeight="1">
+      <c r="B488" s="2"/>
+      <c r="C488" s="2"/>
+    </row>
+    <row r="489" ht="17.25" customHeight="1">
+      <c r="B489" s="2"/>
+      <c r="C489" s="2"/>
+    </row>
+    <row r="490" ht="17.25" customHeight="1">
+      <c r="B490" s="2"/>
+      <c r="C490" s="2"/>
+    </row>
+    <row r="491" ht="17.25" customHeight="1">
+      <c r="B491" s="2"/>
+      <c r="C491" s="2"/>
+    </row>
+    <row r="492" ht="17.25" customHeight="1">
+      <c r="B492" s="2"/>
+      <c r="C492" s="2"/>
+    </row>
+    <row r="493" ht="17.25" customHeight="1">
+      <c r="B493" s="2"/>
+      <c r="C493" s="2"/>
+    </row>
+    <row r="494" ht="17.25" customHeight="1">
+      <c r="B494" s="2"/>
+      <c r="C494" s="2"/>
+    </row>
+    <row r="495" ht="17.25" customHeight="1">
+      <c r="B495" s="2"/>
+      <c r="C495" s="2"/>
+    </row>
+    <row r="496" ht="17.25" customHeight="1">
+      <c r="B496" s="2"/>
+      <c r="C496" s="2"/>
+    </row>
+    <row r="497" ht="17.25" customHeight="1">
+      <c r="B497" s="2"/>
+      <c r="C497" s="2"/>
+    </row>
+    <row r="498" ht="17.25" customHeight="1">
+      <c r="B498" s="2"/>
+      <c r="C498" s="2"/>
+    </row>
+    <row r="499" ht="17.25" customHeight="1">
+      <c r="B499" s="2"/>
+      <c r="C499" s="2"/>
+    </row>
+    <row r="500" ht="17.25" customHeight="1">
+      <c r="B500" s="2"/>
+      <c r="C500" s="2"/>
+    </row>
+    <row r="501" ht="17.25" customHeight="1">
+      <c r="B501" s="2"/>
+      <c r="C501" s="2"/>
+    </row>
+    <row r="502" ht="17.25" customHeight="1">
+      <c r="B502" s="2"/>
+      <c r="C502" s="2"/>
+    </row>
+    <row r="503" ht="17.25" customHeight="1">
+      <c r="B503" s="2"/>
+      <c r="C503" s="2"/>
+    </row>
+    <row r="504" ht="17.25" customHeight="1">
+      <c r="B504" s="2"/>
+      <c r="C504" s="2"/>
+    </row>
+    <row r="505" ht="17.25" customHeight="1">
+      <c r="B505" s="2"/>
+      <c r="C505" s="2"/>
+    </row>
+    <row r="506" ht="17.25" customHeight="1">
+      <c r="B506" s="2"/>
+      <c r="C506" s="2"/>
+    </row>
+    <row r="507" ht="17.25" customHeight="1">
+      <c r="B507" s="2"/>
+      <c r="C507" s="2"/>
+    </row>
+    <row r="508" ht="17.25" customHeight="1">
+      <c r="B508" s="2"/>
+      <c r="C508" s="2"/>
+    </row>
+    <row r="509" ht="17.25" customHeight="1">
+      <c r="B509" s="2"/>
+      <c r="C509" s="2"/>
+    </row>
+    <row r="510" ht="17.25" customHeight="1">
+      <c r="B510" s="2"/>
+      <c r="C510" s="2"/>
+    </row>
+    <row r="511" ht="17.25" customHeight="1">
+      <c r="B511" s="2"/>
+      <c r="C511" s="2"/>
+    </row>
+    <row r="512" ht="17.25" customHeight="1">
+      <c r="B512" s="2"/>
+      <c r="C512" s="2"/>
+    </row>
+    <row r="513" ht="17.25" customHeight="1">
+      <c r="B513" s="2"/>
+      <c r="C513" s="2"/>
+    </row>
+    <row r="514" ht="17.25" customHeight="1">
+      <c r="B514" s="2"/>
+      <c r="C514" s="2"/>
+    </row>
+    <row r="515" ht="17.25" customHeight="1">
+      <c r="B515" s="2"/>
+      <c r="C515" s="2"/>
+    </row>
+    <row r="516" ht="17.25" customHeight="1">
+      <c r="B516" s="2"/>
+      <c r="C516" s="2"/>
+    </row>
+    <row r="517" ht="17.25" customHeight="1">
+      <c r="B517" s="2"/>
+      <c r="C517" s="2"/>
+    </row>
+    <row r="518" ht="17.25" customHeight="1">
+      <c r="B518" s="2"/>
+      <c r="C518" s="2"/>
+    </row>
+    <row r="519" ht="17.25" customHeight="1">
+      <c r="B519" s="2"/>
+      <c r="C519" s="2"/>
+    </row>
+    <row r="520" ht="17.25" customHeight="1">
+      <c r="B520" s="2"/>
+      <c r="C520" s="2"/>
+    </row>
+    <row r="521" ht="17.25" customHeight="1">
+      <c r="B521" s="2"/>
+      <c r="C521" s="2"/>
+    </row>
+    <row r="522" ht="17.25" customHeight="1">
+      <c r="B522" s="2"/>
+      <c r="C522" s="2"/>
+    </row>
+    <row r="523" ht="17.25" customHeight="1">
+      <c r="B523" s="2"/>
+      <c r="C523" s="2"/>
+    </row>
+    <row r="524" ht="17.25" customHeight="1">
+      <c r="B524" s="2"/>
+      <c r="C524" s="2"/>
+    </row>
+    <row r="525" ht="17.25" customHeight="1">
+      <c r="B525" s="2"/>
+      <c r="C525" s="2"/>
+    </row>
+    <row r="526" ht="17.25" customHeight="1">
+      <c r="B526" s="2"/>
+      <c r="C526" s="2"/>
+    </row>
+    <row r="527" ht="17.25" customHeight="1">
+      <c r="B527" s="2"/>
+      <c r="C527" s="2"/>
+    </row>
+    <row r="528" ht="17.25" customHeight="1">
+      <c r="B528" s="2"/>
+      <c r="C528" s="2"/>
+    </row>
+    <row r="529" ht="17.25" customHeight="1">
+      <c r="B529" s="2"/>
+      <c r="C529" s="2"/>
+    </row>
+    <row r="530" ht="17.25" customHeight="1">
+      <c r="B530" s="2"/>
+      <c r="C530" s="2"/>
+    </row>
+    <row r="531" ht="17.25" customHeight="1">
+      <c r="B531" s="2"/>
+      <c r="C531" s="2"/>
+    </row>
+    <row r="532" ht="17.25" customHeight="1">
+      <c r="B532" s="2"/>
+      <c r="C532" s="2"/>
+    </row>
+    <row r="533" ht="17.25" customHeight="1">
+      <c r="B533" s="2"/>
+      <c r="C533" s="2"/>
+    </row>
+    <row r="534" ht="17.25" customHeight="1">
+      <c r="B534" s="2"/>
+      <c r="C534" s="2"/>
+    </row>
+    <row r="535" ht="17.25" customHeight="1">
+      <c r="B535" s="2"/>
+      <c r="C535" s="2"/>
+    </row>
+    <row r="536" ht="17.25" customHeight="1">
+      <c r="B536" s="2"/>
+      <c r="C536" s="2"/>
+    </row>
+    <row r="537" ht="17.25" customHeight="1">
+      <c r="B537" s="2"/>
+      <c r="C537" s="2"/>
+    </row>
+    <row r="538" ht="17.25" customHeight="1">
+      <c r="B538" s="2"/>
+      <c r="C538" s="2"/>
+    </row>
+    <row r="539" ht="17.25" customHeight="1">
+      <c r="B539" s="2"/>
+      <c r="C539" s="2"/>
+    </row>
+    <row r="540" ht="17.25" customHeight="1">
+      <c r="B540" s="2"/>
+      <c r="C540" s="2"/>
+    </row>
+    <row r="541" ht="17.25" customHeight="1">
+      <c r="B541" s="2"/>
+      <c r="C541" s="2"/>
+    </row>
+    <row r="542" ht="17.25" customHeight="1">
+      <c r="B542" s="2"/>
+      <c r="C542" s="2"/>
+    </row>
+    <row r="543" ht="17.25" customHeight="1">
+      <c r="B543" s="2"/>
+      <c r="C543" s="2"/>
+    </row>
+    <row r="544" ht="17.25" customHeight="1">
+      <c r="B544" s="2"/>
+      <c r="C544" s="2"/>
+    </row>
+    <row r="545" ht="17.25" customHeight="1">
+      <c r="B545" s="2"/>
+      <c r="C545" s="2"/>
+    </row>
+    <row r="546" ht="17.25" customHeight="1">
+      <c r="B546" s="2"/>
+      <c r="C546" s="2"/>
+    </row>
+    <row r="547" ht="17.25" customHeight="1">
+      <c r="B547" s="2"/>
+      <c r="C547" s="2"/>
+    </row>
+    <row r="548" ht="17.25" customHeight="1">
+      <c r="B548" s="2"/>
+      <c r="C548" s="2"/>
+    </row>
+    <row r="549" ht="17.25" customHeight="1">
+      <c r="B549" s="2"/>
+      <c r="C549" s="2"/>
+    </row>
+    <row r="550" ht="17.25" customHeight="1">
+      <c r="B550" s="2"/>
+      <c r="C550" s="2"/>
+    </row>
+    <row r="551" ht="17.25" customHeight="1">
+      <c r="B551" s="2"/>
+      <c r="C551" s="2"/>
+    </row>
+    <row r="552" ht="17.25" customHeight="1">
+      <c r="B552" s="2"/>
+      <c r="C552" s="2"/>
+    </row>
+    <row r="553" ht="17.25" customHeight="1">
+      <c r="B553" s="2"/>
+      <c r="C553" s="2"/>
+    </row>
+    <row r="554" ht="17.25" customHeight="1">
+      <c r="B554" s="2"/>
+      <c r="C554" s="2"/>
+    </row>
+    <row r="555" ht="17.25" customHeight="1">
+      <c r="B555" s="2"/>
+      <c r="C555" s="2"/>
+    </row>
+    <row r="556" ht="17.25" customHeight="1">
+      <c r="B556" s="2"/>
+      <c r="C556" s="2"/>
+    </row>
+    <row r="557" ht="17.25" customHeight="1">
+      <c r="B557" s="2"/>
+      <c r="C557" s="2"/>
+    </row>
+    <row r="558" ht="17.25" customHeight="1">
+      <c r="B558" s="2"/>
+      <c r="C558" s="2"/>
+    </row>
+    <row r="559" ht="17.25" customHeight="1">
+      <c r="B559" s="2"/>
+      <c r="C559" s="2"/>
+    </row>
+    <row r="560" ht="17.25" customHeight="1">
+      <c r="B560" s="2"/>
+      <c r="C560" s="2"/>
+    </row>
+    <row r="561" ht="17.25" customHeight="1">
+      <c r="B561" s="2"/>
+      <c r="C561" s="2"/>
+    </row>
+    <row r="562" ht="17.25" customHeight="1">
+      <c r="B562" s="2"/>
+      <c r="C562" s="2"/>
+    </row>
+    <row r="563" ht="17.25" customHeight="1">
+      <c r="B563" s="2"/>
+      <c r="C563" s="2"/>
+    </row>
+    <row r="564" ht="17.25" customHeight="1">
+      <c r="B564" s="2"/>
+      <c r="C564" s="2"/>
+    </row>
+    <row r="565" ht="17.25" customHeight="1">
+      <c r="B565" s="2"/>
+      <c r="C565" s="2"/>
+    </row>
+    <row r="566" ht="17.25" customHeight="1">
+      <c r="B566" s="2"/>
+      <c r="C566" s="2"/>
+    </row>
+    <row r="567" ht="17.25" customHeight="1">
+      <c r="B567" s="2"/>
+      <c r="C567" s="2"/>
+    </row>
+    <row r="568" ht="17.25" customHeight="1">
+      <c r="B568" s="2"/>
+      <c r="C568" s="2"/>
+    </row>
+    <row r="569" ht="17.25" customHeight="1">
+      <c r="B569" s="2"/>
+      <c r="C569" s="2"/>
+    </row>
+    <row r="570" ht="17.25" customHeight="1">
+      <c r="B570" s="2"/>
+      <c r="C570" s="2"/>
+    </row>
+    <row r="571" ht="17.25" customHeight="1">
+      <c r="B571" s="2"/>
+      <c r="C571" s="2"/>
+    </row>
+    <row r="572" ht="17.25" customHeight="1">
+      <c r="B572" s="2"/>
+      <c r="C572" s="2"/>
+    </row>
+    <row r="573" ht="17.25" customHeight="1">
+      <c r="B573" s="2"/>
+      <c r="C573" s="2"/>
+    </row>
+    <row r="574" ht="17.25" customHeight="1">
+      <c r="B574" s="2"/>
+      <c r="C574" s="2"/>
+    </row>
+    <row r="575" ht="17.25" customHeight="1">
+      <c r="B575" s="2"/>
+      <c r="C575" s="2"/>
+    </row>
+    <row r="576" ht="17.25" customHeight="1">
+      <c r="B576" s="2"/>
+      <c r="C576" s="2"/>
+    </row>
+    <row r="577" ht="17.25" customHeight="1">
+      <c r="B577" s="2"/>
+      <c r="C577" s="2"/>
+    </row>
+    <row r="578" ht="17.25" customHeight="1">
+      <c r="B578" s="2"/>
+      <c r="C578" s="2"/>
+    </row>
+    <row r="579" ht="17.25" customHeight="1">
+      <c r="B579" s="2"/>
+      <c r="C579" s="2"/>
+    </row>
+    <row r="580" ht="17.25" customHeight="1">
+      <c r="B580" s="2"/>
+      <c r="C580" s="2"/>
+    </row>
+    <row r="581" ht="17.25" customHeight="1">
+      <c r="B581" s="2"/>
+      <c r="C581" s="2"/>
+    </row>
+    <row r="582" ht="17.25" customHeight="1">
+      <c r="B582" s="2"/>
+      <c r="C582" s="2"/>
+    </row>
+    <row r="583" ht="17.25" customHeight="1">
+      <c r="B583" s="2"/>
+      <c r="C583" s="2"/>
+    </row>
+    <row r="584" ht="17.25" customHeight="1">
+      <c r="B584" s="2"/>
+      <c r="C584" s="2"/>
+    </row>
+    <row r="585" ht="17.25" customHeight="1">
+      <c r="B585" s="2"/>
+      <c r="C585" s="2"/>
+    </row>
+    <row r="586" ht="17.25" customHeight="1">
+      <c r="B586" s="2"/>
+      <c r="C586" s="2"/>
+    </row>
+    <row r="587" ht="17.25" customHeight="1">
+      <c r="B587" s="2"/>
+      <c r="C587" s="2"/>
+    </row>
+    <row r="588" ht="17.25" customHeight="1">
+      <c r="B588" s="2"/>
+      <c r="C588" s="2"/>
+    </row>
+    <row r="589" ht="17.25" customHeight="1">
+      <c r="B589" s="2"/>
+      <c r="C589" s="2"/>
+    </row>
+    <row r="590" ht="17.25" customHeight="1">
+      <c r="B590" s="2"/>
+      <c r="C590" s="2"/>
+    </row>
+    <row r="591" ht="17.25" customHeight="1">
+      <c r="B591" s="2"/>
+      <c r="C591" s="2"/>
+    </row>
+    <row r="592" ht="17.25" customHeight="1">
+      <c r="B592" s="2"/>
+      <c r="C592" s="2"/>
+    </row>
+    <row r="593" ht="17.25" customHeight="1">
+      <c r="B593" s="2"/>
+      <c r="C593" s="2"/>
+    </row>
+    <row r="594" ht="17.25" customHeight="1">
+      <c r="B594" s="2"/>
+      <c r="C594" s="2"/>
+    </row>
+    <row r="595" ht="17.25" customHeight="1">
+      <c r="B595" s="2"/>
+      <c r="C595" s="2"/>
+    </row>
+    <row r="596" ht="17.25" customHeight="1">
+      <c r="B596" s="2"/>
+      <c r="C596" s="2"/>
+    </row>
+    <row r="597" ht="17.25" customHeight="1">
+      <c r="B597" s="2"/>
+      <c r="C597" s="2"/>
+    </row>
+    <row r="598" ht="17.25" customHeight="1">
+      <c r="B598" s="2"/>
+      <c r="C598" s="2"/>
+    </row>
+    <row r="599" ht="17.25" customHeight="1">
+      <c r="B599" s="2"/>
+      <c r="C599" s="2"/>
+    </row>
+    <row r="600" ht="17.25" customHeight="1">
+      <c r="B600" s="2"/>
+      <c r="C600" s="2"/>
+    </row>
+    <row r="601" ht="17.25" customHeight="1">
+      <c r="B601" s="2"/>
+      <c r="C601" s="2"/>
+    </row>
+    <row r="602" ht="17.25" customHeight="1">
+      <c r="B602" s="2"/>
+      <c r="C602" s="2"/>
+    </row>
+    <row r="603" ht="17.25" customHeight="1">
+      <c r="B603" s="2"/>
+      <c r="C603" s="2"/>
+    </row>
+    <row r="604" ht="17.25" customHeight="1">
+      <c r="B604" s="2"/>
+      <c r="C604" s="2"/>
+    </row>
+    <row r="605" ht="17.25" customHeight="1">
+      <c r="B605" s="2"/>
+      <c r="C605" s="2"/>
+    </row>
+    <row r="606" ht="17.25" customHeight="1">
+      <c r="B606" s="2"/>
+      <c r="C606" s="2"/>
+    </row>
+    <row r="607" ht="17.25" customHeight="1">
+      <c r="B607" s="2"/>
+      <c r="C607" s="2"/>
+    </row>
+    <row r="608" ht="17.25" customHeight="1">
+      <c r="B608" s="2"/>
+      <c r="C608" s="2"/>
+    </row>
+    <row r="609" ht="17.25" customHeight="1">
+      <c r="B609" s="2"/>
+      <c r="C609" s="2"/>
+    </row>
+    <row r="610" ht="17.25" customHeight="1">
+      <c r="B610" s="2"/>
+      <c r="C610" s="2"/>
+    </row>
+    <row r="611" ht="17.25" customHeight="1">
+      <c r="B611" s="2"/>
+      <c r="C611" s="2"/>
+    </row>
+    <row r="612" ht="17.25" customHeight="1">
+      <c r="B612" s="2"/>
+      <c r="C612" s="2"/>
+    </row>
+    <row r="613" ht="17.25" customHeight="1">
+      <c r="B613" s="2"/>
+      <c r="C613" s="2"/>
+    </row>
+    <row r="614" ht="17.25" customHeight="1">
+      <c r="B614" s="2"/>
+      <c r="C614" s="2"/>
+    </row>
+    <row r="615" ht="17.25" customHeight="1">
+      <c r="B615" s="2"/>
+      <c r="C615" s="2"/>
+    </row>
+    <row r="616" ht="17.25" customHeight="1">
+      <c r="B616" s="2"/>
+      <c r="C616" s="2"/>
+    </row>
+    <row r="617" ht="17.25" customHeight="1">
+      <c r="B617" s="2"/>
+      <c r="C617" s="2"/>
+    </row>
+    <row r="618" ht="17.25" customHeight="1">
+      <c r="B618" s="2"/>
+      <c r="C618" s="2"/>
+    </row>
+    <row r="619" ht="17.25" customHeight="1">
+      <c r="B619" s="2"/>
+      <c r="C619" s="2"/>
+    </row>
+    <row r="620" ht="17.25" customHeight="1">
+      <c r="B620" s="2"/>
+      <c r="C620" s="2"/>
+    </row>
+    <row r="621" ht="17.25" customHeight="1">
+      <c r="B621" s="2"/>
+      <c r="C621" s="2"/>
+    </row>
+    <row r="622" ht="17.25" customHeight="1">
+      <c r="B622" s="2"/>
+      <c r="C622" s="2"/>
+    </row>
+    <row r="623" ht="17.25" customHeight="1">
+      <c r="B623" s="2"/>
+      <c r="C623" s="2"/>
+    </row>
+    <row r="624" ht="17.25" customHeight="1">
+      <c r="B624" s="2"/>
+      <c r="C624" s="2"/>
+    </row>
+    <row r="625" ht="17.25" customHeight="1">
+      <c r="B625" s="2"/>
+      <c r="C625" s="2"/>
+    </row>
+    <row r="626" ht="17.25" customHeight="1">
+      <c r="B626" s="2"/>
+      <c r="C626" s="2"/>
+    </row>
+    <row r="627" ht="17.25" customHeight="1">
+      <c r="B627" s="2"/>
+      <c r="C627" s="2"/>
+    </row>
+    <row r="628" ht="17.25" customHeight="1">
+      <c r="B628" s="2"/>
+      <c r="C628" s="2"/>
+    </row>
+    <row r="629" ht="17.25" customHeight="1">
+      <c r="B629" s="2"/>
+      <c r="C629" s="2"/>
+    </row>
+    <row r="630" ht="17.25" customHeight="1">
+      <c r="B630" s="2"/>
+      <c r="C630" s="2"/>
+    </row>
+    <row r="631" ht="17.25" customHeight="1">
+      <c r="B631" s="2"/>
+      <c r="C631" s="2"/>
+    </row>
+    <row r="632" ht="17.25" customHeight="1">
+      <c r="B632" s="2"/>
+      <c r="C632" s="2"/>
+    </row>
+    <row r="633" ht="17.25" customHeight="1">
+      <c r="B633" s="2"/>
+      <c r="C633" s="2"/>
+    </row>
+    <row r="634" ht="17.25" customHeight="1">
+      <c r="B634" s="2"/>
+      <c r="C634" s="2"/>
+    </row>
+    <row r="635" ht="17.25" customHeight="1">
+      <c r="B635" s="2"/>
+      <c r="C635" s="2"/>
+    </row>
+    <row r="636" ht="17.25" customHeight="1">
+      <c r="B636" s="2"/>
+      <c r="C636" s="2"/>
+    </row>
+    <row r="637" ht="17.25" customHeight="1">
+      <c r="B637" s="2"/>
+      <c r="C637" s="2"/>
+    </row>
+    <row r="638" ht="17.25" customHeight="1">
+      <c r="B638" s="2"/>
+      <c r="C638" s="2"/>
+    </row>
+    <row r="639" ht="17.25" customHeight="1">
+      <c r="B639" s="2"/>
+      <c r="C639" s="2"/>
+    </row>
+    <row r="640" ht="17.25" customHeight="1">
+      <c r="B640" s="2"/>
+      <c r="C640" s="2"/>
+    </row>
+    <row r="641" ht="17.25" customHeight="1">
+      <c r="B641" s="2"/>
+      <c r="C641" s="2"/>
+    </row>
+    <row r="642" ht="17.25" customHeight="1">
+      <c r="B642" s="2"/>
+      <c r="C642" s="2"/>
+    </row>
+    <row r="643" ht="17.25" customHeight="1">
+      <c r="B643" s="2"/>
+      <c r="C643" s="2"/>
+    </row>
+    <row r="644" ht="17.25" customHeight="1">
+      <c r="B644" s="2"/>
+      <c r="C644" s="2"/>
+    </row>
+    <row r="645" ht="17.25" customHeight="1">
+      <c r="B645" s="2"/>
+      <c r="C645" s="2"/>
+    </row>
+    <row r="646" ht="17.25" customHeight="1">
+      <c r="B646" s="2"/>
+      <c r="C646" s="2"/>
+    </row>
+    <row r="647" ht="17.25" customHeight="1">
+      <c r="B647" s="2"/>
+      <c r="C647" s="2"/>
+    </row>
+    <row r="648" ht="17.25" customHeight="1">
+      <c r="B648" s="2"/>
+      <c r="C648" s="2"/>
+    </row>
+    <row r="649" ht="17.25" customHeight="1">
+      <c r="B649" s="2"/>
+      <c r="C649" s="2"/>
+    </row>
+    <row r="650" ht="17.25" customHeight="1">
+      <c r="B650" s="2"/>
+      <c r="C650" s="2"/>
+    </row>
+    <row r="651" ht="17.25" customHeight="1">
+      <c r="B651" s="2"/>
+      <c r="C651" s="2"/>
+    </row>
+    <row r="652" ht="17.25" customHeight="1">
+      <c r="B652" s="2"/>
+      <c r="C652" s="2"/>
+    </row>
+    <row r="653" ht="17.25" customHeight="1">
+      <c r="B653" s="2"/>
+      <c r="C653" s="2"/>
+    </row>
+    <row r="654" ht="17.25" customHeight="1">
+      <c r="B654" s="2"/>
+      <c r="C654" s="2"/>
+    </row>
+    <row r="655" ht="17.25" customHeight="1">
+      <c r="B655" s="2"/>
+      <c r="C655" s="2"/>
+    </row>
+    <row r="656" ht="17.25" customHeight="1">
+      <c r="B656" s="2"/>
+      <c r="C656" s="2"/>
+    </row>
+    <row r="657" ht="17.25" customHeight="1">
+      <c r="B657" s="2"/>
+      <c r="C657" s="2"/>
+    </row>
+    <row r="658" ht="17.25" customHeight="1">
+      <c r="B658" s="2"/>
+      <c r="C658" s="2"/>
+    </row>
+    <row r="659" ht="17.25" customHeight="1">
+      <c r="B659" s="2"/>
+      <c r="C659" s="2"/>
+    </row>
+    <row r="660" ht="17.25" customHeight="1">
+      <c r="B660" s="2"/>
+      <c r="C660" s="2"/>
+    </row>
+    <row r="661" ht="17.25" customHeight="1">
+      <c r="B661" s="2"/>
+      <c r="C661" s="2"/>
+    </row>
+    <row r="662" ht="17.25" customHeight="1">
+      <c r="B662" s="2"/>
+      <c r="C662" s="2"/>
+    </row>
+    <row r="663" ht="17.25" customHeight="1">
+      <c r="B663" s="2"/>
+      <c r="C663" s="2"/>
+    </row>
+    <row r="664" ht="17.25" customHeight="1">
+      <c r="B664" s="2"/>
+      <c r="C664" s="2"/>
+    </row>
+    <row r="665" ht="17.25" customHeight="1">
+      <c r="B665" s="2"/>
+      <c r="C665" s="2"/>
+    </row>
+    <row r="666" ht="17.25" customHeight="1">
+      <c r="B666" s="2"/>
+      <c r="C666" s="2"/>
+    </row>
+    <row r="667" ht="17.25" customHeight="1">
+      <c r="B667" s="2"/>
+      <c r="C667" s="2"/>
+    </row>
+    <row r="668" ht="17.25" customHeight="1">
+      <c r="B668" s="2"/>
+      <c r="C668" s="2"/>
+    </row>
+    <row r="669" ht="17.25" customHeight="1">
+      <c r="B669" s="2"/>
+      <c r="C669" s="2"/>
+    </row>
+    <row r="670" ht="17.25" customHeight="1">
+      <c r="B670" s="2"/>
+      <c r="C670" s="2"/>
+    </row>
+    <row r="671" ht="17.25" customHeight="1">
+      <c r="B671" s="2"/>
+      <c r="C671" s="2"/>
+    </row>
+    <row r="672" ht="17.25" customHeight="1">
+      <c r="B672" s="2"/>
+      <c r="C672" s="2"/>
+    </row>
+    <row r="673" ht="17.25" customHeight="1">
+      <c r="B673" s="2"/>
+      <c r="C673" s="2"/>
+    </row>
+    <row r="674" ht="17.25" customHeight="1">
+      <c r="B674" s="2"/>
+      <c r="C674" s="2"/>
+    </row>
+    <row r="675" ht="17.25" customHeight="1">
+      <c r="B675" s="2"/>
+      <c r="C675" s="2"/>
+    </row>
+    <row r="676" ht="17.25" customHeight="1">
+      <c r="B676" s="2"/>
+      <c r="C676" s="2"/>
+    </row>
+    <row r="677" ht="17.25" customHeight="1">
+      <c r="B677" s="2"/>
+      <c r="C677" s="2"/>
+    </row>
+    <row r="678" ht="17.25" customHeight="1">
+      <c r="B678" s="2"/>
+      <c r="C678" s="2"/>
+    </row>
+    <row r="679" ht="17.25" customHeight="1">
+      <c r="B679" s="2"/>
+      <c r="C679" s="2"/>
+    </row>
+    <row r="680" ht="17.25" customHeight="1">
+      <c r="B680" s="2"/>
+      <c r="C680" s="2"/>
+    </row>
+    <row r="681" ht="17.25" customHeight="1">
+      <c r="B681" s="2"/>
+      <c r="C681" s="2"/>
+    </row>
+    <row r="682" ht="17.25" customHeight="1">
+      <c r="B682" s="2"/>
+      <c r="C682" s="2"/>
+    </row>
+    <row r="683" ht="17.25" customHeight="1">
+      <c r="B683" s="2"/>
+      <c r="C683" s="2"/>
+    </row>
+    <row r="684" ht="17.25" customHeight="1">
+      <c r="B684" s="2"/>
+      <c r="C684" s="2"/>
+    </row>
+    <row r="685" ht="17.25" customHeight="1">
+      <c r="B685" s="2"/>
+      <c r="C685" s="2"/>
+    </row>
+    <row r="686" ht="17.25" customHeight="1">
+      <c r="B686" s="2"/>
+      <c r="C686" s="2"/>
+    </row>
+    <row r="687" ht="17.25" customHeight="1">
+      <c r="B687" s="2"/>
+      <c r="C687" s="2"/>
+    </row>
+    <row r="688" ht="17.25" customHeight="1">
+      <c r="B688" s="2"/>
+      <c r="C688" s="2"/>
+    </row>
+    <row r="689" ht="17.25" customHeight="1">
+      <c r="B689" s="2"/>
+      <c r="C689" s="2"/>
+    </row>
+    <row r="690" ht="17.25" customHeight="1">
+      <c r="B690" s="2"/>
+      <c r="C690" s="2"/>
+    </row>
+    <row r="691" ht="17.25" customHeight="1">
+      <c r="B691" s="2"/>
+      <c r="C691" s="2"/>
+    </row>
+    <row r="692" ht="17.25" customHeight="1">
+      <c r="B692" s="2"/>
+      <c r="C692" s="2"/>
+    </row>
+    <row r="693" ht="17.25" customHeight="1">
+      <c r="B693" s="2"/>
+      <c r="C693" s="2"/>
+    </row>
+    <row r="694" ht="17.25" customHeight="1">
+      <c r="B694" s="2"/>
+      <c r="C694" s="2"/>
+    </row>
+    <row r="695" ht="17.25" customHeight="1">
+      <c r="B695" s="2"/>
+      <c r="C695" s="2"/>
+    </row>
+    <row r="696" ht="17.25" customHeight="1">
+      <c r="B696" s="2"/>
+      <c r="C696" s="2"/>
+    </row>
+    <row r="697" ht="17.25" customHeight="1">
+      <c r="B697" s="2"/>
+      <c r="C697" s="2"/>
+    </row>
+    <row r="698" ht="17.25" customHeight="1">
+      <c r="B698" s="2"/>
+      <c r="C698" s="2"/>
+    </row>
+    <row r="699" ht="17.25" customHeight="1">
+      <c r="B699" s="2"/>
+      <c r="C699" s="2"/>
+    </row>
+    <row r="700" ht="17.25" customHeight="1">
+      <c r="B700" s="2"/>
+      <c r="C700" s="2"/>
+    </row>
+    <row r="701" ht="17.25" customHeight="1">
+      <c r="B701" s="2"/>
+      <c r="C701" s="2"/>
+    </row>
+    <row r="702" ht="17.25" customHeight="1">
+      <c r="B702" s="2"/>
+      <c r="C702" s="2"/>
+    </row>
+    <row r="703" ht="17.25" customHeight="1">
+      <c r="B703" s="2"/>
+      <c r="C703" s="2"/>
+    </row>
+    <row r="704" ht="17.25" customHeight="1">
+      <c r="B704" s="2"/>
+      <c r="C704" s="2"/>
+    </row>
+    <row r="705" ht="17.25" customHeight="1">
+      <c r="B705" s="2"/>
+      <c r="C705" s="2"/>
+    </row>
+    <row r="706" ht="17.25" customHeight="1">
+      <c r="B706" s="2"/>
+      <c r="C706" s="2"/>
+    </row>
+    <row r="707" ht="17.25" customHeight="1">
+      <c r="B707" s="2"/>
+      <c r="C707" s="2"/>
+    </row>
+    <row r="708" ht="17.25" customHeight="1">
+      <c r="B708" s="2"/>
+      <c r="C708" s="2"/>
+    </row>
+    <row r="709" ht="17.25" customHeight="1">
+      <c r="B709" s="2"/>
+      <c r="C709" s="2"/>
+    </row>
+    <row r="710" ht="17.25" customHeight="1">
+      <c r="B710" s="2"/>
+      <c r="C710" s="2"/>
+    </row>
+    <row r="711" ht="17.25" customHeight="1">
+      <c r="B711" s="2"/>
+      <c r="C711" s="2"/>
+    </row>
+    <row r="712" ht="17.25" customHeight="1">
+      <c r="B712" s="2"/>
+      <c r="C712" s="2"/>
+    </row>
+    <row r="713" ht="17.25" customHeight="1">
+      <c r="B713" s="2"/>
+      <c r="C713" s="2"/>
+    </row>
+    <row r="714" ht="17.25" customHeight="1">
+      <c r="B714" s="2"/>
+      <c r="C714" s="2"/>
+    </row>
+    <row r="715" ht="17.25" customHeight="1">
+      <c r="B715" s="2"/>
+      <c r="C715" s="2"/>
+    </row>
+    <row r="716" ht="17.25" customHeight="1">
+      <c r="B716" s="2"/>
+      <c r="C716" s="2"/>
+    </row>
+    <row r="717" ht="17.25" customHeight="1">
+      <c r="B717" s="2"/>
+      <c r="C717" s="2"/>
+    </row>
+    <row r="718" ht="17.25" customHeight="1">
+      <c r="B718" s="2"/>
+      <c r="C718" s="2"/>
+    </row>
+    <row r="719" ht="17.25" customHeight="1">
+      <c r="B719" s="2"/>
+      <c r="C719" s="2"/>
+    </row>
+    <row r="720" ht="17.25" customHeight="1">
+      <c r="B720" s="2"/>
+      <c r="C720" s="2"/>
+    </row>
+    <row r="721" ht="17.25" customHeight="1">
+      <c r="B721" s="2"/>
+      <c r="C721" s="2"/>
+    </row>
+    <row r="722" ht="17.25" customHeight="1">
+      <c r="B722" s="2"/>
+      <c r="C722" s="2"/>
+    </row>
+    <row r="723" ht="17.25" customHeight="1">
+      <c r="B723" s="2"/>
+      <c r="C723" s="2"/>
+    </row>
+    <row r="724" ht="17.25" customHeight="1">
+      <c r="B724" s="2"/>
+      <c r="C724" s="2"/>
+    </row>
+    <row r="725" ht="17.25" customHeight="1">
+      <c r="B725" s="2"/>
+      <c r="C725" s="2"/>
+    </row>
+    <row r="726" ht="17.25" customHeight="1">
+      <c r="B726" s="2"/>
+      <c r="C726" s="2"/>
+    </row>
+    <row r="727" ht="17.25" customHeight="1">
+      <c r="B727" s="2"/>
+      <c r="C727" s="2"/>
+    </row>
+    <row r="728" ht="17.25" customHeight="1">
+      <c r="B728" s="2"/>
+      <c r="C728" s="2"/>
+    </row>
+    <row r="729" ht="17.25" customHeight="1">
+      <c r="B729" s="2"/>
+      <c r="C729" s="2"/>
+    </row>
+    <row r="730" ht="17.25" customHeight="1">
+      <c r="B730" s="2"/>
+      <c r="C730" s="2"/>
+    </row>
+    <row r="731" ht="17.25" customHeight="1">
+      <c r="B731" s="2"/>
+      <c r="C731" s="2"/>
+    </row>
+    <row r="732" ht="17.25" customHeight="1">
+      <c r="B732" s="2"/>
+      <c r="C732" s="2"/>
+    </row>
+    <row r="733" ht="17.25" customHeight="1">
+      <c r="B733" s="2"/>
+      <c r="C733" s="2"/>
+    </row>
+    <row r="734" ht="17.25" customHeight="1">
+      <c r="B734" s="2"/>
+      <c r="C734" s="2"/>
+    </row>
+    <row r="735" ht="17.25" customHeight="1">
+      <c r="B735" s="2"/>
+      <c r="C735" s="2"/>
+    </row>
+    <row r="736" ht="17.25" customHeight="1">
+      <c r="B736" s="2"/>
+      <c r="C736" s="2"/>
+    </row>
+    <row r="737" ht="17.25" customHeight="1">
+      <c r="B737" s="2"/>
+      <c r="C737" s="2"/>
+    </row>
+    <row r="738" ht="17.25" customHeight="1">
+      <c r="B738" s="2"/>
+      <c r="C738" s="2"/>
+    </row>
+    <row r="739" ht="17.25" customHeight="1">
+      <c r="B739" s="2"/>
+      <c r="C739" s="2"/>
+    </row>
+    <row r="740" ht="17.25" customHeight="1">
+      <c r="B740" s="2"/>
+      <c r="C740" s="2"/>
+    </row>
+    <row r="741" ht="17.25" customHeight="1">
+      <c r="B741" s="2"/>
+      <c r="C741" s="2"/>
+    </row>
+    <row r="742" ht="17.25" customHeight="1">
+      <c r="B742" s="2"/>
+      <c r="C742" s="2"/>
+    </row>
+    <row r="743" ht="17.25" customHeight="1">
+      <c r="B743" s="2"/>
+      <c r="C743" s="2"/>
+    </row>
+    <row r="744" ht="17.25" customHeight="1">
+      <c r="B744" s="2"/>
+      <c r="C744" s="2"/>
+    </row>
+    <row r="745" ht="17.25" customHeight="1">
+      <c r="B745" s="2"/>
+      <c r="C745" s="2"/>
+    </row>
+    <row r="746" ht="17.25" customHeight="1">
+      <c r="B746" s="2"/>
+      <c r="C746" s="2"/>
+    </row>
+    <row r="747" ht="17.25" customHeight="1">
+      <c r="B747" s="2"/>
+      <c r="C747" s="2"/>
+    </row>
+    <row r="748" ht="17.25" customHeight="1">
+      <c r="B748" s="2"/>
+      <c r="C748" s="2"/>
+    </row>
+    <row r="749" ht="17.25" customHeight="1">
+      <c r="B749" s="2"/>
+      <c r="C749" s="2"/>
+    </row>
+    <row r="750" ht="17.25" customHeight="1">
+      <c r="B750" s="2"/>
+      <c r="C750" s="2"/>
+    </row>
+    <row r="751" ht="17.25" customHeight="1">
+      <c r="B751" s="2"/>
+      <c r="C751" s="2"/>
+    </row>
+    <row r="752" ht="17.25" customHeight="1">
+      <c r="B752" s="2"/>
+      <c r="C752" s="2"/>
+    </row>
+    <row r="753" ht="17.25" customHeight="1">
+      <c r="B753" s="2"/>
+      <c r="C753" s="2"/>
+    </row>
+    <row r="754" ht="17.25" customHeight="1">
+      <c r="B754" s="2"/>
+      <c r="C754" s="2"/>
+    </row>
+    <row r="755" ht="17.25" customHeight="1">
+      <c r="B755" s="2"/>
+      <c r="C755" s="2"/>
+    </row>
+    <row r="756" ht="17.25" customHeight="1">
+      <c r="B756" s="2"/>
+      <c r="C756" s="2"/>
+    </row>
+    <row r="757" ht="17.25" customHeight="1">
+      <c r="B757" s="2"/>
+      <c r="C757" s="2"/>
+    </row>
+    <row r="758" ht="17.25" customHeight="1">
+      <c r="B758" s="2"/>
+      <c r="C758" s="2"/>
+    </row>
+    <row r="759" ht="17.25" customHeight="1">
+      <c r="B759" s="2"/>
+      <c r="C759" s="2"/>
+    </row>
+    <row r="760" ht="17.25" customHeight="1">
+      <c r="B760" s="2"/>
+      <c r="C760" s="2"/>
+    </row>
+    <row r="761" ht="17.25" customHeight="1">
+      <c r="B761" s="2"/>
+      <c r="C761" s="2"/>
+    </row>
+    <row r="762" ht="17.25" customHeight="1">
+      <c r="B762" s="2"/>
+      <c r="C762" s="2"/>
+    </row>
+    <row r="763" ht="17.25" customHeight="1">
+      <c r="B763" s="2"/>
+      <c r="C763" s="2"/>
+    </row>
+    <row r="764" ht="17.25" customHeight="1">
+      <c r="B764" s="2"/>
+      <c r="C764" s="2"/>
+    </row>
+    <row r="765" ht="17.25" customHeight="1">
+      <c r="B765" s="2"/>
+      <c r="C765" s="2"/>
+    </row>
+    <row r="766" ht="17.25" customHeight="1">
+      <c r="B766" s="2"/>
+      <c r="C766" s="2"/>
+    </row>
+    <row r="767" ht="17.25" customHeight="1">
+      <c r="B767" s="2"/>
+      <c r="C767" s="2"/>
+    </row>
+    <row r="768" ht="17.25" customHeight="1">
+      <c r="B768" s="2"/>
+      <c r="C768" s="2"/>
+    </row>
+    <row r="769" ht="17.25" customHeight="1">
+      <c r="B769" s="2"/>
+      <c r="C769" s="2"/>
+    </row>
+    <row r="770" ht="17.25" customHeight="1">
+      <c r="B770" s="2"/>
+      <c r="C770" s="2"/>
+    </row>
+    <row r="771" ht="17.25" customHeight="1">
+      <c r="B771" s="2"/>
+      <c r="C771" s="2"/>
+    </row>
+    <row r="772" ht="17.25" customHeight="1">
+      <c r="B772" s="2"/>
+      <c r="C772" s="2"/>
+    </row>
+    <row r="773" ht="17.25" customHeight="1">
+      <c r="B773" s="2"/>
+      <c r="C773" s="2"/>
+    </row>
+    <row r="774" ht="17.25" customHeight="1">
+      <c r="B774" s="2"/>
+      <c r="C774" s="2"/>
+    </row>
+    <row r="775" ht="17.25" customHeight="1">
+      <c r="B775" s="2"/>
+      <c r="C775" s="2"/>
+    </row>
+    <row r="776" ht="17.25" customHeight="1">
+      <c r="B776" s="2"/>
+      <c r="C776" s="2"/>
+    </row>
+    <row r="777" ht="17.25" customHeight="1">
+      <c r="B777" s="2"/>
+      <c r="C777" s="2"/>
+    </row>
+    <row r="778" ht="17.25" customHeight="1">
+      <c r="B778" s="2"/>
+      <c r="C778" s="2"/>
+    </row>
+    <row r="779" ht="17.25" customHeight="1">
+      <c r="B779" s="2"/>
+      <c r="C779" s="2"/>
+    </row>
+    <row r="780" ht="17.25" customHeight="1">
+      <c r="B780" s="2"/>
+      <c r="C780" s="2"/>
+    </row>
+    <row r="781" ht="17.25" customHeight="1">
+      <c r="B781" s="2"/>
+      <c r="C781" s="2"/>
+    </row>
+    <row r="782" ht="17.25" customHeight="1">
+      <c r="B782" s="2"/>
+      <c r="C782" s="2"/>
+    </row>
+    <row r="783" ht="17.25" customHeight="1">
+      <c r="B783" s="2"/>
+      <c r="C783" s="2"/>
+    </row>
+    <row r="784" ht="17.25" customHeight="1">
+      <c r="B784" s="2"/>
+      <c r="C784" s="2"/>
+    </row>
+    <row r="785" ht="17.25" customHeight="1">
+      <c r="B785" s="2"/>
+      <c r="C785" s="2"/>
+    </row>
+    <row r="786" ht="17.25" customHeight="1">
+      <c r="B786" s="2"/>
+      <c r="C786" s="2"/>
+    </row>
+    <row r="787" ht="17.25" customHeight="1">
+      <c r="B787" s="2"/>
+      <c r="C787" s="2"/>
+    </row>
+    <row r="788" ht="17.25" customHeight="1">
+      <c r="B788" s="2"/>
+      <c r="C788" s="2"/>
+    </row>
+    <row r="789" ht="17.25" customHeight="1">
+      <c r="B789" s="2"/>
+      <c r="C789" s="2"/>
+    </row>
+    <row r="790" ht="17.25" customHeight="1">
+      <c r="B790" s="2"/>
+      <c r="C790" s="2"/>
+    </row>
+    <row r="791" ht="17.25" customHeight="1">
+      <c r="B791" s="2"/>
+      <c r="C791" s="2"/>
+    </row>
+    <row r="792" ht="17.25" customHeight="1">
+      <c r="B792" s="2"/>
+      <c r="C792" s="2"/>
+    </row>
+    <row r="793" ht="17.25" customHeight="1">
+      <c r="B793" s="2"/>
+      <c r="C793" s="2"/>
+    </row>
+    <row r="794" ht="17.25" customHeight="1">
+      <c r="B794" s="2"/>
+      <c r="C794" s="2"/>
+    </row>
+    <row r="795" ht="17.25" customHeight="1">
+      <c r="B795" s="2"/>
+      <c r="C795" s="2"/>
+    </row>
+    <row r="796" ht="17.25" customHeight="1">
+      <c r="B796" s="2"/>
+      <c r="C796" s="2"/>
+    </row>
+    <row r="797" ht="17.25" customHeight="1">
+      <c r="B797" s="2"/>
+      <c r="C797" s="2"/>
+    </row>
+    <row r="798" ht="17.25" customHeight="1">
+      <c r="B798" s="2"/>
+      <c r="C798" s="2"/>
+    </row>
+    <row r="799" ht="17.25" customHeight="1">
+      <c r="B799" s="2"/>
+      <c r="C799" s="2"/>
+    </row>
+    <row r="800" ht="17.25" customHeight="1">
+      <c r="B800" s="2"/>
+      <c r="C800" s="2"/>
+    </row>
+    <row r="801" ht="17.25" customHeight="1">
+      <c r="B801" s="2"/>
+      <c r="C801" s="2"/>
+    </row>
+    <row r="802" ht="17.25" customHeight="1">
+      <c r="B802" s="2"/>
+      <c r="C802" s="2"/>
+    </row>
+    <row r="803" ht="17.25" customHeight="1">
+      <c r="B803" s="2"/>
+      <c r="C803" s="2"/>
+    </row>
+    <row r="804" ht="17.25" customHeight="1">
+      <c r="B804" s="2"/>
+      <c r="C804" s="2"/>
+    </row>
+    <row r="805" ht="17.25" customHeight="1">
+      <c r="B805" s="2"/>
+      <c r="C805" s="2"/>
+    </row>
+    <row r="806" ht="17.25" customHeight="1">
+      <c r="B806" s="2"/>
+      <c r="C806" s="2"/>
+    </row>
+    <row r="807" ht="17.25" customHeight="1">
+      <c r="B807" s="2"/>
+      <c r="C807" s="2"/>
+    </row>
+    <row r="808" ht="17.25" customHeight="1">
+      <c r="B808" s="2"/>
+      <c r="C808" s="2"/>
+    </row>
+    <row r="809" ht="17.25" customHeight="1">
+      <c r="B809" s="2"/>
+      <c r="C809" s="2"/>
+    </row>
+    <row r="810" ht="17.25" customHeight="1">
+      <c r="B810" s="2"/>
+      <c r="C810" s="2"/>
+    </row>
+    <row r="811" ht="17.25" customHeight="1">
+      <c r="B811" s="2"/>
+      <c r="C811" s="2"/>
+    </row>
+    <row r="812" ht="17.25" customHeight="1">
+      <c r="B812" s="2"/>
+      <c r="C812" s="2"/>
+    </row>
+    <row r="813" ht="17.25" customHeight="1">
+      <c r="B813" s="2"/>
+      <c r="C813" s="2"/>
+    </row>
+    <row r="814" ht="17.25" customHeight="1">
+      <c r="B814" s="2"/>
+      <c r="C814" s="2"/>
+    </row>
+    <row r="815" ht="17.25" customHeight="1">
+      <c r="B815" s="2"/>
+      <c r="C815" s="2"/>
+    </row>
+    <row r="816" ht="17.25" customHeight="1">
+      <c r="B816" s="2"/>
+      <c r="C816" s="2"/>
+    </row>
+    <row r="817" ht="17.25" customHeight="1">
+      <c r="B817" s="2"/>
+      <c r="C817" s="2"/>
+    </row>
+    <row r="818" ht="17.25" customHeight="1">
+      <c r="B818" s="2"/>
+      <c r="C818" s="2"/>
+    </row>
+    <row r="819" ht="17.25" customHeight="1">
+      <c r="B819" s="2"/>
+      <c r="C819" s="2"/>
+    </row>
+    <row r="820" ht="17.25" customHeight="1">
+      <c r="B820" s="2"/>
+      <c r="C820" s="2"/>
+    </row>
+    <row r="821" ht="17.25" customHeight="1">
+      <c r="B821" s="2"/>
+      <c r="C821" s="2"/>
+    </row>
+    <row r="822" ht="17.25" customHeight="1">
+      <c r="B822" s="2"/>
+      <c r="C822" s="2"/>
+    </row>
+    <row r="823" ht="17.25" customHeight="1">
+      <c r="B823" s="2"/>
+      <c r="C823" s="2"/>
+    </row>
+    <row r="824" ht="17.25" customHeight="1">
+      <c r="B824" s="2"/>
+      <c r="C824" s="2"/>
+    </row>
+    <row r="825" ht="17.25" customHeight="1">
+      <c r="B825" s="2"/>
+      <c r="C825" s="2"/>
+    </row>
+    <row r="826" ht="17.25" customHeight="1">
+      <c r="B826" s="2"/>
+      <c r="C826" s="2"/>
+    </row>
+    <row r="827" ht="17.25" customHeight="1">
+      <c r="B827" s="2"/>
+      <c r="C827" s="2"/>
+    </row>
+    <row r="828" ht="17.25" customHeight="1">
+      <c r="B828" s="2"/>
+      <c r="C828" s="2"/>
+    </row>
+    <row r="829" ht="17.25" customHeight="1">
+      <c r="B829" s="2"/>
+      <c r="C829" s="2"/>
+    </row>
+    <row r="830" ht="17.25" customHeight="1">
+      <c r="B830" s="2"/>
+      <c r="C830" s="2"/>
+    </row>
+    <row r="831" ht="17.25" customHeight="1">
+      <c r="B831" s="2"/>
+      <c r="C831" s="2"/>
+    </row>
+    <row r="832" ht="17.25" customHeight="1">
+      <c r="B832" s="2"/>
+      <c r="C832" s="2"/>
+    </row>
+    <row r="833" ht="17.25" customHeight="1">
+      <c r="B833" s="2"/>
+      <c r="C833" s="2"/>
+    </row>
+    <row r="834" ht="17.25" customHeight="1">
+      <c r="B834" s="2"/>
+      <c r="C834" s="2"/>
+    </row>
+    <row r="835" ht="17.25" customHeight="1">
+      <c r="B835" s="2"/>
+      <c r="C835" s="2"/>
+    </row>
+    <row r="836" ht="17.25" customHeight="1">
+      <c r="B836" s="2"/>
+      <c r="C836" s="2"/>
+    </row>
+    <row r="837" ht="17.25" customHeight="1">
+      <c r="B837" s="2"/>
+      <c r="C837" s="2"/>
+    </row>
+    <row r="838" ht="17.25" customHeight="1">
+      <c r="B838" s="2"/>
+      <c r="C838" s="2"/>
+    </row>
+    <row r="839" ht="17.25" customHeight="1">
+      <c r="B839" s="2"/>
+      <c r="C839" s="2"/>
+    </row>
+    <row r="840" ht="17.25" customHeight="1">
+      <c r="B840" s="2"/>
+      <c r="C840" s="2"/>
+    </row>
+    <row r="841" ht="17.25" customHeight="1">
+      <c r="B841" s="2"/>
+      <c r="C841" s="2"/>
+    </row>
+    <row r="842" ht="17.25" customHeight="1">
+      <c r="B842" s="2"/>
+      <c r="C842" s="2"/>
+    </row>
+    <row r="843" ht="17.25" customHeight="1">
+      <c r="B843" s="2"/>
+      <c r="C843" s="2"/>
+    </row>
+    <row r="844" ht="17.25" customHeight="1">
+      <c r="B844" s="2"/>
+      <c r="C844" s="2"/>
+    </row>
+    <row r="845" ht="17.25" customHeight="1">
+      <c r="B845" s="2"/>
+      <c r="C845" s="2"/>
+    </row>
+    <row r="846" ht="17.25" customHeight="1">
+      <c r="B846" s="2"/>
+      <c r="C846" s="2"/>
+    </row>
+    <row r="847" ht="17.25" customHeight="1">
+      <c r="B847" s="2"/>
+      <c r="C847" s="2"/>
+    </row>
+    <row r="848" ht="17.25" customHeight="1">
+      <c r="B848" s="2"/>
+      <c r="C848" s="2"/>
+    </row>
+    <row r="849" ht="17.25" customHeight="1">
+      <c r="B849" s="2"/>
+      <c r="C849" s="2"/>
+    </row>
+    <row r="850" ht="17.25" customHeight="1">
+      <c r="B850" s="2"/>
+      <c r="C850" s="2"/>
+    </row>
+    <row r="851" ht="17.25" customHeight="1">
+      <c r="B851" s="2"/>
+      <c r="C851" s="2"/>
+    </row>
+    <row r="852" ht="17.25" customHeight="1">
+      <c r="B852" s="2"/>
+      <c r="C852" s="2"/>
+    </row>
+    <row r="853" ht="17.25" customHeight="1">
+      <c r="B853" s="2"/>
+      <c r="C853" s="2"/>
+    </row>
+    <row r="854" ht="17.25" customHeight="1">
+      <c r="B854" s="2"/>
+      <c r="C854" s="2"/>
+    </row>
+    <row r="855" ht="17.25" customHeight="1">
+      <c r="B855" s="2"/>
+      <c r="C855" s="2"/>
+    </row>
+    <row r="856" ht="17.25" customHeight="1">
+      <c r="B856" s="2"/>
+      <c r="C856" s="2"/>
+    </row>
+    <row r="857" ht="17.25" customHeight="1">
+      <c r="B857" s="2"/>
+      <c r="C857" s="2"/>
+    </row>
+    <row r="858" ht="17.25" customHeight="1">
+      <c r="B858" s="2"/>
+      <c r="C858" s="2"/>
+    </row>
+    <row r="859" ht="17.25" customHeight="1">
+      <c r="B859" s="2"/>
+      <c r="C859" s="2"/>
+    </row>
+    <row r="860" ht="17.25" customHeight="1">
+      <c r="B860" s="2"/>
+      <c r="C860" s="2"/>
+    </row>
+    <row r="861" ht="17.25" customHeight="1">
+      <c r="B861" s="2"/>
+      <c r="C861" s="2"/>
+    </row>
+    <row r="862" ht="17.25" customHeight="1">
+      <c r="B862" s="2"/>
+      <c r="C862" s="2"/>
+    </row>
+    <row r="863" ht="17.25" customHeight="1">
+      <c r="B863" s="2"/>
+      <c r="C863" s="2"/>
+    </row>
+    <row r="864" ht="17.25" customHeight="1">
+      <c r="B864" s="2"/>
+      <c r="C864" s="2"/>
+    </row>
+    <row r="865" ht="17.25" customHeight="1">
+      <c r="B865" s="2"/>
+      <c r="C865" s="2"/>
+    </row>
+    <row r="866" ht="17.25" customHeight="1">
+      <c r="B866" s="2"/>
+      <c r="C866" s="2"/>
+    </row>
+    <row r="867" ht="17.25" customHeight="1">
+      <c r="B867" s="2"/>
+      <c r="C867" s="2"/>
+    </row>
+    <row r="868" ht="17.25" customHeight="1">
+      <c r="B868" s="2"/>
+      <c r="C868" s="2"/>
+    </row>
+    <row r="869" ht="17.25" customHeight="1">
+      <c r="B869" s="2"/>
+      <c r="C869" s="2"/>
+    </row>
+    <row r="870" ht="17.25" customHeight="1">
+      <c r="B870" s="2"/>
+      <c r="C870" s="2"/>
+    </row>
+    <row r="871" ht="17.25" customHeight="1">
+      <c r="B871" s="2"/>
+      <c r="C871" s="2"/>
+    </row>
+    <row r="872" ht="17.25" customHeight="1">
+      <c r="B872" s="2"/>
+      <c r="C872" s="2"/>
+    </row>
+    <row r="873" ht="17.25" customHeight="1">
+      <c r="B873" s="2"/>
+      <c r="C873" s="2"/>
+    </row>
+    <row r="874" ht="17.25" customHeight="1">
+      <c r="B874" s="2"/>
+      <c r="C874" s="2"/>
+    </row>
+    <row r="875" ht="17.25" customHeight="1">
+      <c r="B875" s="2"/>
+      <c r="C875" s="2"/>
+    </row>
+    <row r="876" ht="17.25" customHeight="1">
+      <c r="B876" s="2"/>
+      <c r="C876" s="2"/>
+    </row>
+    <row r="877" ht="17.25" customHeight="1">
+      <c r="B877" s="2"/>
+      <c r="C877" s="2"/>
+    </row>
+    <row r="878" ht="17.25" customHeight="1">
+      <c r="B878" s="2"/>
+      <c r="C878" s="2"/>
+    </row>
+    <row r="879" ht="17.25" customHeight="1">
+      <c r="B879" s="2"/>
+      <c r="C879" s="2"/>
+    </row>
+    <row r="880" ht="17.25" customHeight="1">
+      <c r="B880" s="2"/>
+      <c r="C880" s="2"/>
+    </row>
+    <row r="881" ht="17.25" customHeight="1">
+      <c r="B881" s="2"/>
+      <c r="C881" s="2"/>
+    </row>
+    <row r="882" ht="17.25" customHeight="1">
+      <c r="B882" s="2"/>
+      <c r="C882" s="2"/>
+    </row>
+    <row r="883" ht="17.25" customHeight="1">
+      <c r="B883" s="2"/>
+      <c r="C883" s="2"/>
+    </row>
+    <row r="884" ht="17.25" customHeight="1">
+      <c r="B884" s="2"/>
+      <c r="C884" s="2"/>
+    </row>
+    <row r="885" ht="17.25" customHeight="1">
+      <c r="B885" s="2"/>
+      <c r="C885" s="2"/>
+    </row>
+    <row r="886" ht="17.25" customHeight="1">
+      <c r="B886" s="2"/>
+      <c r="C886" s="2"/>
+    </row>
+    <row r="887" ht="17.25" customHeight="1">
+      <c r="B887" s="2"/>
+      <c r="C887" s="2"/>
+    </row>
+    <row r="888" ht="17.25" customHeight="1">
+      <c r="B888" s="2"/>
+      <c r="C888" s="2"/>
+    </row>
+    <row r="889" ht="17.25" customHeight="1">
+      <c r="B889" s="2"/>
+      <c r="C889" s="2"/>
+    </row>
+    <row r="890" ht="17.25" customHeight="1">
+      <c r="B890" s="2"/>
+      <c r="C890" s="2"/>
+    </row>
+    <row r="891" ht="17.25" customHeight="1">
+      <c r="B891" s="2"/>
+      <c r="C891" s="2"/>
+    </row>
+    <row r="892" ht="17.25" customHeight="1">
+      <c r="B892" s="2"/>
+      <c r="C892" s="2"/>
+    </row>
+    <row r="893" ht="17.25" customHeight="1">
+      <c r="B893" s="2"/>
+      <c r="C893" s="2"/>
+    </row>
+    <row r="894" ht="17.25" customHeight="1">
+      <c r="B894" s="2"/>
+      <c r="C894" s="2"/>
+    </row>
+    <row r="895" ht="17.25" customHeight="1">
+      <c r="B895" s="2"/>
+      <c r="C895" s="2"/>
+    </row>
+    <row r="896" ht="17.25" customHeight="1">
+      <c r="B896" s="2"/>
+      <c r="C896" s="2"/>
+    </row>
+    <row r="897" ht="17.25" customHeight="1">
+      <c r="B897" s="2"/>
+      <c r="C897" s="2"/>
+    </row>
+    <row r="898" ht="17.25" customHeight="1">
+      <c r="B898" s="2"/>
+      <c r="C898" s="2"/>
+    </row>
+    <row r="899" ht="17.25" customHeight="1">
+      <c r="B899" s="2"/>
+      <c r="C899" s="2"/>
+    </row>
+    <row r="900" ht="17.25" customHeight="1">
+      <c r="B900" s="2"/>
+      <c r="C900" s="2"/>
+    </row>
+    <row r="901" ht="17.25" customHeight="1">
+      <c r="B901" s="2"/>
+      <c r="C901" s="2"/>
+    </row>
+    <row r="902" ht="17.25" customHeight="1">
+      <c r="B902" s="2"/>
+      <c r="C902" s="2"/>
+    </row>
+    <row r="903" ht="17.25" customHeight="1">
+      <c r="B903" s="2"/>
+      <c r="C903" s="2"/>
+    </row>
+    <row r="904" ht="17.25" customHeight="1">
+      <c r="B904" s="2"/>
+      <c r="C904" s="2"/>
+    </row>
+    <row r="905" ht="17.25" customHeight="1">
+      <c r="B905" s="2"/>
+      <c r="C905" s="2"/>
+    </row>
+    <row r="906" ht="17.25" customHeight="1">
+      <c r="B906" s="2"/>
+      <c r="C906" s="2"/>
+    </row>
+    <row r="907" ht="17.25" customHeight="1">
+      <c r="B907" s="2"/>
+      <c r="C907" s="2"/>
+    </row>
+    <row r="908" ht="17.25" customHeight="1">
+      <c r="B908" s="2"/>
+      <c r="C908" s="2"/>
+    </row>
+    <row r="909" ht="17.25" customHeight="1">
+      <c r="B909" s="2"/>
+      <c r="C909" s="2"/>
+    </row>
+    <row r="910" ht="17.25" customHeight="1">
+      <c r="B910" s="2"/>
+      <c r="C910" s="2"/>
+    </row>
+    <row r="911" ht="17.25" customHeight="1">
+      <c r="B911" s="2"/>
+      <c r="C911" s="2"/>
+    </row>
+    <row r="912" ht="17.25" customHeight="1">
+      <c r="B912" s="2"/>
+      <c r="C912" s="2"/>
+    </row>
+    <row r="913" ht="17.25" customHeight="1">
+      <c r="B913" s="2"/>
+      <c r="C913" s="2"/>
+    </row>
+    <row r="914" ht="17.25" customHeight="1">
+      <c r="B914" s="2"/>
+      <c r="C914" s="2"/>
+    </row>
+    <row r="915" ht="17.25" customHeight="1">
+      <c r="B915" s="2"/>
+      <c r="C915" s="2"/>
+    </row>
+    <row r="916" ht="17.25" customHeight="1">
+      <c r="B916" s="2"/>
+      <c r="C916" s="2"/>
+    </row>
+    <row r="917" ht="17.25" customHeight="1">
+      <c r="B917" s="2"/>
+      <c r="C917" s="2"/>
+    </row>
+    <row r="918" ht="17.25" customHeight="1">
+      <c r="B918" s="2"/>
+      <c r="C918" s="2"/>
+    </row>
+    <row r="919" ht="17.25" customHeight="1">
+      <c r="B919" s="2"/>
+      <c r="C919" s="2"/>
+    </row>
+    <row r="920" ht="17.25" customHeight="1">
+      <c r="B920" s="2"/>
+      <c r="C920" s="2"/>
+    </row>
+    <row r="921" ht="17.25" customHeight="1">
+      <c r="B921" s="2"/>
+      <c r="C921" s="2"/>
+    </row>
+    <row r="922" ht="17.25" customHeight="1">
+      <c r="B922" s="2"/>
+      <c r="C922" s="2"/>
+    </row>
+    <row r="923" ht="17.25" customHeight="1">
+      <c r="B923" s="2"/>
+      <c r="C923" s="2"/>
+    </row>
+    <row r="924" ht="17.25" customHeight="1">
+      <c r="B924" s="2"/>
+      <c r="C924" s="2"/>
+    </row>
+    <row r="925" ht="17.25" customHeight="1">
+      <c r="B925" s="2"/>
+      <c r="C925" s="2"/>
+    </row>
+    <row r="926" ht="17.25" customHeight="1">
+      <c r="B926" s="2"/>
+      <c r="C926" s="2"/>
+    </row>
+    <row r="927" ht="17.25" customHeight="1">
+      <c r="B927" s="2"/>
+      <c r="C927" s="2"/>
+    </row>
+    <row r="928" ht="17.25" customHeight="1">
+      <c r="B928" s="2"/>
+      <c r="C928" s="2"/>
+    </row>
+    <row r="929" ht="17.25" customHeight="1">
+      <c r="B929" s="2"/>
+      <c r="C929" s="2"/>
+    </row>
+    <row r="930" ht="17.25" customHeight="1">
+      <c r="B930" s="2"/>
+      <c r="C930" s="2"/>
+    </row>
+    <row r="931" ht="17.25" customHeight="1">
+      <c r="B931" s="2"/>
+      <c r="C931" s="2"/>
+    </row>
+    <row r="932" ht="17.25" customHeight="1">
+      <c r="B932" s="2"/>
+      <c r="C932" s="2"/>
+    </row>
+    <row r="933" ht="17.25" customHeight="1">
+      <c r="B933" s="2"/>
+      <c r="C933" s="2"/>
+    </row>
+    <row r="934" ht="17.25" customHeight="1">
+      <c r="B934" s="2"/>
+      <c r="C934" s="2"/>
+    </row>
+    <row r="935" ht="17.25" customHeight="1">
+      <c r="B935" s="2"/>
+      <c r="C935" s="2"/>
+    </row>
+    <row r="936" ht="17.25" customHeight="1">
+      <c r="B936" s="2"/>
+      <c r="C936" s="2"/>
+    </row>
+    <row r="937" ht="17.25" customHeight="1">
+      <c r="B937" s="2"/>
+      <c r="C937" s="2"/>
+    </row>
+    <row r="938" ht="17.25" customHeight="1">
+      <c r="B938" s="2"/>
+      <c r="C938" s="2"/>
+    </row>
+    <row r="939" ht="17.25" customHeight="1">
+      <c r="B939" s="2"/>
+      <c r="C939" s="2"/>
+    </row>
+    <row r="940" ht="17.25" customHeight="1">
+      <c r="B940" s="2"/>
+      <c r="C940" s="2"/>
+    </row>
+    <row r="941" ht="17.25" customHeight="1">
+      <c r="B941" s="2"/>
+      <c r="C941" s="2"/>
+    </row>
+    <row r="942" ht="17.25" customHeight="1">
+      <c r="B942" s="2"/>
+      <c r="C942" s="2"/>
+    </row>
+    <row r="943" ht="17.25" customHeight="1">
+      <c r="B943" s="2"/>
+      <c r="C943" s="2"/>
+    </row>
+    <row r="944" ht="17.25" customHeight="1">
+      <c r="B944" s="2"/>
+      <c r="C944" s="2"/>
+    </row>
+    <row r="945" ht="17.25" customHeight="1">
+      <c r="B945" s="2"/>
+      <c r="C945" s="2"/>
+    </row>
+    <row r="946" ht="17.25" customHeight="1">
+      <c r="B946" s="2"/>
+      <c r="C946" s="2"/>
+    </row>
+    <row r="947" ht="17.25" customHeight="1">
+      <c r="B947" s="2"/>
+      <c r="C947" s="2"/>
+    </row>
+    <row r="948" ht="17.25" customHeight="1">
+      <c r="B948" s="2"/>
+      <c r="C948" s="2"/>
+    </row>
+    <row r="949" ht="17.25" customHeight="1">
+      <c r="B949" s="2"/>
+      <c r="C949" s="2"/>
+    </row>
+    <row r="950" ht="17.25" customHeight="1">
+      <c r="B950" s="2"/>
+      <c r="C950" s="2"/>
+    </row>
+    <row r="951" ht="17.25" customHeight="1">
+      <c r="B951" s="2"/>
+      <c r="C951" s="2"/>
+    </row>
+    <row r="952" ht="17.25" customHeight="1">
+      <c r="B952" s="2"/>
+      <c r="C952" s="2"/>
+    </row>
+    <row r="953" ht="17.25" customHeight="1">
+      <c r="B953" s="2"/>
+      <c r="C953" s="2"/>
+    </row>
+    <row r="954" ht="17.25" customHeight="1">
+      <c r="B954" s="2"/>
+      <c r="C954" s="2"/>
+    </row>
+    <row r="955" ht="17.25" customHeight="1">
+      <c r="B955" s="2"/>
+      <c r="C955" s="2"/>
+    </row>
+    <row r="956" ht="17.25" customHeight="1">
+      <c r="B956" s="2"/>
+      <c r="C956" s="2"/>
+    </row>
+    <row r="957" ht="17.25" customHeight="1">
+      <c r="B957" s="2"/>
+      <c r="C957" s="2"/>
+    </row>
     <row r="958" ht="17.25" customHeight="1">
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -4910,19 +9336,45 @@
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
     </row>
+    <row r="962" ht="17.25" customHeight="1">
+      <c r="B962" s="2"/>
+      <c r="C962" s="2"/>
+    </row>
+    <row r="963" ht="17.25" customHeight="1">
+      <c r="B963" s="2"/>
+      <c r="C963" s="2"/>
+    </row>
+    <row r="964" ht="17.25" customHeight="1">
+      <c r="B964" s="2"/>
+      <c r="C964" s="2"/>
+    </row>
+    <row r="965" ht="17.25" customHeight="1">
+      <c r="B965" s="2"/>
+      <c r="C965" s="2"/>
+    </row>
+    <row r="966" ht="17.25" customHeight="1">
+      <c r="B966" s="2"/>
+      <c r="C966" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="17">
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:A10"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
